--- a/data-migration/xlsx_1900-/1913_Winter.xlsx
+++ b/data-migration/xlsx_1900-/1913_Winter.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\TEMP REPOSITORY\VVZ 1833-2014\_WEB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\TEMP REPOSITORY\VVZ 1833-2014\_XLSX_2024-05-22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B93E2E2F-AE97-4D7B-ACAA-0015621895FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD69C9C5-59C9-4116-BB19-5B1A5C976D99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3099" uniqueCount="1312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3099" uniqueCount="1313">
   <si>
     <t>Winter</t>
   </si>
@@ -3952,10 +3952,13 @@
     <t>fehr_b</t>
   </si>
   <si>
+    <t>sidler_e</t>
+  </si>
+  <si>
     <t>vonlaue_m</t>
   </si>
   <si>
-    <t>sidlerhuguenin_e</t>
+    <t>Prof</t>
   </si>
 </sst>
 </file>
@@ -4319,20 +4322,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N433"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H144" workbookViewId="0">
-      <selection activeCell="H156" sqref="H156"/>
+    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
+      <selection activeCell="L190" sqref="L190"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="26.6640625" customWidth="1"/>
-    <col min="6" max="6" width="30.33203125" customWidth="1"/>
-    <col min="7" max="7" width="34.44140625" customWidth="1"/>
+    <col min="5" max="5" width="26.7109375" customWidth="1"/>
+    <col min="6" max="6" width="30.28515625" customWidth="1"/>
+    <col min="7" max="7" width="34.42578125" customWidth="1"/>
     <col min="8" max="8" width="33" customWidth="1"/>
-    <col min="10" max="10" width="10.44140625" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1913</v>
       </c>
@@ -4358,7 +4361,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1913</v>
       </c>
@@ -4387,7 +4390,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1913</v>
       </c>
@@ -4413,7 +4416,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1913</v>
       </c>
@@ -4442,7 +4445,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1913</v>
       </c>
@@ -4468,7 +4471,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1913</v>
       </c>
@@ -4494,7 +4497,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1913</v>
       </c>
@@ -4520,7 +4523,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1913</v>
       </c>
@@ -4546,7 +4549,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1913</v>
       </c>
@@ -4572,7 +4575,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1913</v>
       </c>
@@ -4598,7 +4601,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1913</v>
       </c>
@@ -4624,7 +4627,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1913</v>
       </c>
@@ -4650,7 +4653,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1913</v>
       </c>
@@ -4676,7 +4679,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1913</v>
       </c>
@@ -4702,7 +4705,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1913</v>
       </c>
@@ -4728,7 +4731,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1913</v>
       </c>
@@ -4754,7 +4757,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1913</v>
       </c>
@@ -4780,7 +4783,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1913</v>
       </c>
@@ -4806,7 +4809,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1913</v>
       </c>
@@ -4832,7 +4835,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1913</v>
       </c>
@@ -4861,7 +4864,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1913</v>
       </c>
@@ -4887,7 +4890,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1913</v>
       </c>
@@ -4913,7 +4916,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1913</v>
       </c>
@@ -4939,7 +4942,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1913</v>
       </c>
@@ -4965,7 +4968,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1913</v>
       </c>
@@ -4991,7 +4994,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1913</v>
       </c>
@@ -5017,7 +5020,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1913</v>
       </c>
@@ -5043,7 +5046,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1913</v>
       </c>
@@ -5069,7 +5072,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1913</v>
       </c>
@@ -5095,7 +5098,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1913</v>
       </c>
@@ -5121,7 +5124,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1913</v>
       </c>
@@ -5147,7 +5150,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1913</v>
       </c>
@@ -5176,7 +5179,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1913</v>
       </c>
@@ -5205,7 +5208,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1913</v>
       </c>
@@ -5231,7 +5234,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1913</v>
       </c>
@@ -5257,7 +5260,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1913</v>
       </c>
@@ -5283,7 +5286,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1913</v>
       </c>
@@ -5309,7 +5312,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1913</v>
       </c>
@@ -5335,7 +5338,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1913</v>
       </c>
@@ -5361,7 +5364,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1913</v>
       </c>
@@ -5387,7 +5390,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1913</v>
       </c>
@@ -5413,7 +5416,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1913</v>
       </c>
@@ -5439,7 +5442,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1913</v>
       </c>
@@ -5465,7 +5468,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1913</v>
       </c>
@@ -5491,7 +5494,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1913</v>
       </c>
@@ -5517,7 +5520,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1913</v>
       </c>
@@ -5543,7 +5546,7 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>1913</v>
       </c>
@@ -5572,7 +5575,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1913</v>
       </c>
@@ -5598,7 +5601,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1913</v>
       </c>
@@ -5627,7 +5630,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1913</v>
       </c>
@@ -5653,7 +5656,7 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>1913</v>
       </c>
@@ -5679,7 +5682,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>1913</v>
       </c>
@@ -5705,7 +5708,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>1913</v>
       </c>
@@ -5731,7 +5734,7 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>1913</v>
       </c>
@@ -5757,7 +5760,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>1913</v>
       </c>
@@ -5783,7 +5786,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>1913</v>
       </c>
@@ -5809,7 +5812,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>1913</v>
       </c>
@@ -5835,7 +5838,7 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>1913</v>
       </c>
@@ -5861,7 +5864,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>1913</v>
       </c>
@@ -5887,7 +5890,7 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>1913</v>
       </c>
@@ -5913,7 +5916,7 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>1913</v>
       </c>
@@ -5939,7 +5942,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>1913</v>
       </c>
@@ -5965,7 +5968,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>1913</v>
       </c>
@@ -5991,7 +5994,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>1913</v>
       </c>
@@ -6017,7 +6020,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>1913</v>
       </c>
@@ -6043,7 +6046,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>1913</v>
       </c>
@@ -6069,7 +6072,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>1913</v>
       </c>
@@ -6095,7 +6098,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>1913</v>
       </c>
@@ -6121,7 +6124,7 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>1913</v>
       </c>
@@ -6147,7 +6150,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>1913</v>
       </c>
@@ -6173,7 +6176,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>1913</v>
       </c>
@@ -6202,7 +6205,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>1913</v>
       </c>
@@ -6228,7 +6231,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>1913</v>
       </c>
@@ -6254,7 +6257,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>1913</v>
       </c>
@@ -6283,7 +6286,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>1913</v>
       </c>
@@ -6309,7 +6312,7 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>1913</v>
       </c>
@@ -6335,7 +6338,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>1913</v>
       </c>
@@ -6361,7 +6364,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>1913</v>
       </c>
@@ -6387,7 +6390,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>1913</v>
       </c>
@@ -6413,7 +6416,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>1913</v>
       </c>
@@ -6439,7 +6442,7 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>1913</v>
       </c>
@@ -6465,7 +6468,7 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>1913</v>
       </c>
@@ -6491,7 +6494,7 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>1913</v>
       </c>
@@ -6529,7 +6532,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>1913</v>
       </c>
@@ -6558,7 +6561,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>1913</v>
       </c>
@@ -6587,7 +6590,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>1913</v>
       </c>
@@ -6613,7 +6616,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>1913</v>
       </c>
@@ -6642,7 +6645,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>1913</v>
       </c>
@@ -6668,7 +6671,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>1913</v>
       </c>
@@ -6694,7 +6697,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>1913</v>
       </c>
@@ -6720,7 +6723,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>1913</v>
       </c>
@@ -6746,7 +6749,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>1913</v>
       </c>
@@ -6772,7 +6775,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>1913</v>
       </c>
@@ -6798,7 +6801,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>1913</v>
       </c>
@@ -6824,7 +6827,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>1913</v>
       </c>
@@ -6850,7 +6853,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>1913</v>
       </c>
@@ -6876,7 +6879,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>1913</v>
       </c>
@@ -6902,7 +6905,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>1913</v>
       </c>
@@ -6928,7 +6931,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>1913</v>
       </c>
@@ -6954,7 +6957,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>1913</v>
       </c>
@@ -6980,7 +6983,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>1913</v>
       </c>
@@ -7006,7 +7009,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>1913</v>
       </c>
@@ -7038,7 +7041,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>1913</v>
       </c>
@@ -7064,7 +7067,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>1913</v>
       </c>
@@ -7093,7 +7096,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>1913</v>
       </c>
@@ -7122,7 +7125,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>1913</v>
       </c>
@@ -7151,7 +7154,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>1913</v>
       </c>
@@ -7180,7 +7183,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>1913</v>
       </c>
@@ -7206,7 +7209,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>1913</v>
       </c>
@@ -7232,7 +7235,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>1913</v>
       </c>
@@ -7258,7 +7261,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>1913</v>
       </c>
@@ -7284,7 +7287,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>1913</v>
       </c>
@@ -7310,7 +7313,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>1913</v>
       </c>
@@ -7336,7 +7339,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>1913</v>
       </c>
@@ -7362,7 +7365,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>1913</v>
       </c>
@@ -7388,7 +7391,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>1913</v>
       </c>
@@ -7414,7 +7417,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>1913</v>
       </c>
@@ -7440,7 +7443,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>1913</v>
       </c>
@@ -7466,7 +7469,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>1913</v>
       </c>
@@ -7492,7 +7495,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>1913</v>
       </c>
@@ -7518,7 +7521,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>1913</v>
       </c>
@@ -7544,7 +7547,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>1913</v>
       </c>
@@ -7570,7 +7573,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>1913</v>
       </c>
@@ -7596,7 +7599,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>1913</v>
       </c>
@@ -7622,7 +7625,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>1913</v>
       </c>
@@ -7648,7 +7651,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>1913</v>
       </c>
@@ -7674,7 +7677,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>1913</v>
       </c>
@@ -7700,7 +7703,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>1913</v>
       </c>
@@ -7726,7 +7729,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>1913</v>
       </c>
@@ -7752,7 +7755,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>1913</v>
       </c>
@@ -7778,7 +7781,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>1913</v>
       </c>
@@ -7804,7 +7807,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>1913</v>
       </c>
@@ -7830,7 +7833,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>1913</v>
       </c>
@@ -7856,7 +7859,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>1913</v>
       </c>
@@ -7882,7 +7885,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>1913</v>
       </c>
@@ -7908,7 +7911,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>1913</v>
       </c>
@@ -7934,7 +7937,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>1913</v>
       </c>
@@ -7960,7 +7963,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>1913</v>
       </c>
@@ -7986,7 +7989,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>1913</v>
       </c>
@@ -8012,7 +8015,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>1913</v>
       </c>
@@ -8038,7 +8041,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>1913</v>
       </c>
@@ -8064,7 +8067,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>1913</v>
       </c>
@@ -8090,7 +8093,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>1913</v>
       </c>
@@ -8116,7 +8119,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>1913</v>
       </c>
@@ -8142,7 +8145,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>1913</v>
       </c>
@@ -8168,7 +8171,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>1913</v>
       </c>
@@ -8194,7 +8197,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>1913</v>
       </c>
@@ -8220,7 +8223,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>1913</v>
       </c>
@@ -8246,7 +8249,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>1913</v>
       </c>
@@ -8272,7 +8275,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>1913</v>
       </c>
@@ -8298,7 +8301,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>1913</v>
       </c>
@@ -8324,7 +8327,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>1913</v>
       </c>
@@ -8350,7 +8353,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>1913</v>
       </c>
@@ -8376,7 +8379,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>1913</v>
       </c>
@@ -8402,7 +8405,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>1913</v>
       </c>
@@ -8428,7 +8431,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>1913</v>
       </c>
@@ -8448,13 +8451,13 @@
         <v>992</v>
       </c>
       <c r="H156" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="I156" t="s">
         <v>1306</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>1913</v>
       </c>
@@ -8480,7 +8483,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>1913</v>
       </c>
@@ -8506,7 +8509,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>1913</v>
       </c>
@@ -8532,7 +8535,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>1913</v>
       </c>
@@ -8558,7 +8561,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>1913</v>
       </c>
@@ -8584,7 +8587,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>1913</v>
       </c>
@@ -8610,7 +8613,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>1913</v>
       </c>
@@ -8636,7 +8639,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>1913</v>
       </c>
@@ -8662,7 +8665,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>1913</v>
       </c>
@@ -8688,7 +8691,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>1913</v>
       </c>
@@ -8714,7 +8717,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>1913</v>
       </c>
@@ -8740,7 +8743,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>1913</v>
       </c>
@@ -8766,7 +8769,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>1913</v>
       </c>
@@ -8792,7 +8795,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>1913</v>
       </c>
@@ -8818,7 +8821,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>1913</v>
       </c>
@@ -8844,7 +8847,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>1913</v>
       </c>
@@ -8870,7 +8873,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>1913</v>
       </c>
@@ -8896,7 +8899,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>1913</v>
       </c>
@@ -8922,7 +8925,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>1913</v>
       </c>
@@ -8948,7 +8951,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>1913</v>
       </c>
@@ -8974,7 +8977,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>1913</v>
       </c>
@@ -9000,7 +9003,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>1913</v>
       </c>
@@ -9026,7 +9029,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>1913</v>
       </c>
@@ -9052,7 +9055,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>1913</v>
       </c>
@@ -9078,7 +9081,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>1913</v>
       </c>
@@ -9101,10 +9104,10 @@
         <v>1199</v>
       </c>
       <c r="I181" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>1913</v>
       </c>
@@ -9127,10 +9130,10 @@
         <v>1199</v>
       </c>
       <c r="I182" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>1913</v>
       </c>
@@ -9153,10 +9156,10 @@
         <v>1199</v>
       </c>
       <c r="I183" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>1913</v>
       </c>
@@ -9179,10 +9182,10 @@
         <v>1199</v>
       </c>
       <c r="I184" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>1913</v>
       </c>
@@ -9205,10 +9208,10 @@
         <v>1200</v>
       </c>
       <c r="I185" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>1913</v>
       </c>
@@ -9231,10 +9234,10 @@
         <v>1200</v>
       </c>
       <c r="I186" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>1913</v>
       </c>
@@ -9257,10 +9260,10 @@
         <v>1200</v>
       </c>
       <c r="I187" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>1913</v>
       </c>
@@ -9283,10 +9286,10 @@
         <v>1200</v>
       </c>
       <c r="I188" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>1913</v>
       </c>
@@ -9309,10 +9312,10 @@
         <v>1282</v>
       </c>
       <c r="I189" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>1913</v>
       </c>
@@ -9335,10 +9338,10 @@
         <v>1282</v>
       </c>
       <c r="I190" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>1913</v>
       </c>
@@ -9361,10 +9364,10 @@
         <v>1282</v>
       </c>
       <c r="I191" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>1913</v>
       </c>
@@ -9387,10 +9390,10 @@
         <v>1282</v>
       </c>
       <c r="I192" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.3">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>1913</v>
       </c>
@@ -9419,7 +9422,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>1913</v>
       </c>
@@ -9448,7 +9451,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>1913</v>
       </c>
@@ -9477,7 +9480,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>1913</v>
       </c>
@@ -9506,7 +9509,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>1913</v>
       </c>
@@ -9532,7 +9535,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>1913</v>
       </c>
@@ -9558,7 +9561,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>1913</v>
       </c>
@@ -9584,7 +9587,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>1913</v>
       </c>
@@ -9610,7 +9613,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>1913</v>
       </c>
@@ -9636,7 +9639,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>1913</v>
       </c>
@@ -9662,7 +9665,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>1913</v>
       </c>
@@ -9688,7 +9691,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>1913</v>
       </c>
@@ -9714,7 +9717,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>1913</v>
       </c>
@@ -9740,7 +9743,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>1913</v>
       </c>
@@ -9766,7 +9769,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>1913</v>
       </c>
@@ -9792,7 +9795,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>1913</v>
       </c>
@@ -9818,7 +9821,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>1913</v>
       </c>
@@ -9844,7 +9847,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>1913</v>
       </c>
@@ -9870,7 +9873,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>1913</v>
       </c>
@@ -9896,7 +9899,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>1913</v>
       </c>
@@ -9922,7 +9925,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>1913</v>
       </c>
@@ -9948,7 +9951,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>1913</v>
       </c>
@@ -9974,7 +9977,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>1913</v>
       </c>
@@ -10000,7 +10003,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>1913</v>
       </c>
@@ -10026,7 +10029,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>1913</v>
       </c>
@@ -10052,7 +10055,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>1913</v>
       </c>
@@ -10078,7 +10081,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>1913</v>
       </c>
@@ -10104,7 +10107,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>1913</v>
       </c>
@@ -10130,7 +10133,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>1913</v>
       </c>
@@ -10156,7 +10159,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>1913</v>
       </c>
@@ -10182,7 +10185,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>1913</v>
       </c>
@@ -10208,7 +10211,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>1913</v>
       </c>
@@ -10234,7 +10237,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>1913</v>
       </c>
@@ -10260,7 +10263,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>1913</v>
       </c>
@@ -10286,7 +10289,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>1913</v>
       </c>
@@ -10312,7 +10315,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>1913</v>
       </c>
@@ -10338,7 +10341,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>1913</v>
       </c>
@@ -10364,7 +10367,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>1913</v>
       </c>
@@ -10390,7 +10393,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>1913</v>
       </c>
@@ -10416,7 +10419,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>1913</v>
       </c>
@@ -10442,7 +10445,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>1913</v>
       </c>
@@ -10468,7 +10471,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>1913</v>
       </c>
@@ -10494,7 +10497,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>1913</v>
       </c>
@@ -10520,7 +10523,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>1913</v>
       </c>
@@ -10546,7 +10549,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>1913</v>
       </c>
@@ -10572,7 +10575,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>1913</v>
       </c>
@@ -10598,7 +10601,7 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>1913</v>
       </c>
@@ -10624,7 +10627,7 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>1913</v>
       </c>
@@ -10650,7 +10653,7 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>1913</v>
       </c>
@@ -10676,7 +10679,7 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>1913</v>
       </c>
@@ -10702,7 +10705,7 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>1913</v>
       </c>
@@ -10728,7 +10731,7 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>1913</v>
       </c>
@@ -10757,7 +10760,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>1913</v>
       </c>
@@ -10786,7 +10789,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>1913</v>
       </c>
@@ -10812,7 +10815,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>1913</v>
       </c>
@@ -10838,7 +10841,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>1913</v>
       </c>
@@ -10867,7 +10870,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>1913</v>
       </c>
@@ -10896,7 +10899,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>1913</v>
       </c>
@@ -10922,7 +10925,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>1913</v>
       </c>
@@ -10948,7 +10951,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>1913</v>
       </c>
@@ -10974,7 +10977,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>1913</v>
       </c>
@@ -11000,7 +11003,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>1913</v>
       </c>
@@ -11026,7 +11029,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>1913</v>
       </c>
@@ -11052,7 +11055,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>1913</v>
       </c>
@@ -11078,7 +11081,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>1913</v>
       </c>
@@ -11104,7 +11107,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>1913</v>
       </c>
@@ -11130,7 +11133,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>1913</v>
       </c>
@@ -11156,7 +11159,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>1913</v>
       </c>
@@ -11182,7 +11185,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>1913</v>
       </c>
@@ -11211,7 +11214,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>1913</v>
       </c>
@@ -11237,7 +11240,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>1913</v>
       </c>
@@ -11263,7 +11266,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>1913</v>
       </c>
@@ -11289,7 +11292,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>1913</v>
       </c>
@@ -11315,7 +11318,7 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>1913</v>
       </c>
@@ -11341,7 +11344,7 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>1913</v>
       </c>
@@ -11367,7 +11370,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>1913</v>
       </c>
@@ -11393,7 +11396,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>1913</v>
       </c>
@@ -11419,7 +11422,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>1913</v>
       </c>
@@ -11445,7 +11448,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>1913</v>
       </c>
@@ -11471,7 +11474,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>1913</v>
       </c>
@@ -11497,7 +11500,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="273" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>1913</v>
       </c>
@@ -11523,7 +11526,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="274" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>1913</v>
       </c>
@@ -11549,7 +11552,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="275" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>1913</v>
       </c>
@@ -11575,7 +11578,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="276" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>1913</v>
       </c>
@@ -11601,7 +11604,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="277" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>1913</v>
       </c>
@@ -11627,7 +11630,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="278" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>1913</v>
       </c>
@@ -11653,7 +11656,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="279" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>1913</v>
       </c>
@@ -11679,7 +11682,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="280" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>1913</v>
       </c>
@@ -11705,7 +11708,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="281" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>1913</v>
       </c>
@@ -11731,7 +11734,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="282" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>1913</v>
       </c>
@@ -11763,7 +11766,7 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="283" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>1913</v>
       </c>
@@ -11789,7 +11792,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="284" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>1913</v>
       </c>
@@ -11815,7 +11818,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="285" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>1913</v>
       </c>
@@ -11841,7 +11844,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="286" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>1913</v>
       </c>
@@ -11867,7 +11870,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="287" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>1913</v>
       </c>
@@ -11893,7 +11896,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="288" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>1913</v>
       </c>
@@ -11919,7 +11922,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>1913</v>
       </c>
@@ -11945,7 +11948,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>1913</v>
       </c>
@@ -11971,7 +11974,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>1913</v>
       </c>
@@ -12000,7 +12003,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>1913</v>
       </c>
@@ -12029,7 +12032,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>1913</v>
       </c>
@@ -12055,7 +12058,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>1913</v>
       </c>
@@ -12081,7 +12084,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>1913</v>
       </c>
@@ -12107,7 +12110,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>1913</v>
       </c>
@@ -12133,7 +12136,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>1913</v>
       </c>
@@ -12159,7 +12162,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>1913</v>
       </c>
@@ -12185,7 +12188,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>1913</v>
       </c>
@@ -12211,7 +12214,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>1913</v>
       </c>
@@ -12237,7 +12240,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>1913</v>
       </c>
@@ -12263,7 +12266,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>1913</v>
       </c>
@@ -12289,7 +12292,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>1913</v>
       </c>
@@ -12315,7 +12318,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>1913</v>
       </c>
@@ -12341,7 +12344,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>1913</v>
       </c>
@@ -12367,7 +12370,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>1913</v>
       </c>
@@ -12393,7 +12396,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>1913</v>
       </c>
@@ -12419,7 +12422,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>1913</v>
       </c>
@@ -12445,7 +12448,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>1913</v>
       </c>
@@ -12471,7 +12474,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>1913</v>
       </c>
@@ -12497,7 +12500,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>1913</v>
       </c>
@@ -12523,7 +12526,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>1913</v>
       </c>
@@ -12549,7 +12552,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>1913</v>
       </c>
@@ -12575,7 +12578,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>1913</v>
       </c>
@@ -12601,7 +12604,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>1913</v>
       </c>
@@ -12627,7 +12630,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>1913</v>
       </c>
@@ -12653,7 +12656,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>1913</v>
       </c>
@@ -12679,7 +12682,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>1913</v>
       </c>
@@ -12705,7 +12708,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>1913</v>
       </c>
@@ -12731,7 +12734,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>1913</v>
       </c>
@@ -12760,7 +12763,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>1913</v>
       </c>
@@ -12786,7 +12789,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>1913</v>
       </c>
@@ -12812,7 +12815,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>1913</v>
       </c>
@@ -12838,7 +12841,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>1913</v>
       </c>
@@ -12864,7 +12867,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>1913</v>
       </c>
@@ -12890,7 +12893,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>1913</v>
       </c>
@@ -12916,7 +12919,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>1913</v>
       </c>
@@ -12942,7 +12945,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>1913</v>
       </c>
@@ -12968,7 +12971,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>1913</v>
       </c>
@@ -12994,7 +12997,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>1913</v>
       </c>
@@ -13020,7 +13023,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>1913</v>
       </c>
@@ -13046,7 +13049,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>1913</v>
       </c>
@@ -13075,7 +13078,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>1913</v>
       </c>
@@ -13104,7 +13107,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>1913</v>
       </c>
@@ -13130,7 +13133,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>1913</v>
       </c>
@@ -13156,7 +13159,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>1913</v>
       </c>
@@ -13182,7 +13185,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>1913</v>
       </c>
@@ -13208,7 +13211,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>1913</v>
       </c>
@@ -13234,7 +13237,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>1913</v>
       </c>
@@ -13260,7 +13263,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>1913</v>
       </c>
@@ -13286,7 +13289,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>1913</v>
       </c>
@@ -13312,7 +13315,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>1913</v>
       </c>
@@ -13338,7 +13341,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>1913</v>
       </c>
@@ -13364,7 +13367,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>1913</v>
       </c>
@@ -13390,7 +13393,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>1913</v>
       </c>
@@ -13416,7 +13419,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>1913</v>
       </c>
@@ -13442,7 +13445,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>1913</v>
       </c>
@@ -13468,7 +13471,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>1913</v>
       </c>
@@ -13494,7 +13497,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>1913</v>
       </c>
@@ -13520,7 +13523,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>1913</v>
       </c>
@@ -13546,7 +13549,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>1913</v>
       </c>
@@ -13572,7 +13575,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>1913</v>
       </c>
@@ -13601,7 +13604,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="353" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>1913</v>
       </c>
@@ -13630,7 +13633,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="354" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>1913</v>
       </c>
@@ -13659,7 +13662,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="355" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>1913</v>
       </c>
@@ -13688,7 +13691,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="356" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>1913</v>
       </c>
@@ -13714,7 +13717,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="357" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>1913</v>
       </c>
@@ -13740,13 +13743,13 @@
         <v>1303</v>
       </c>
       <c r="K357" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="L357" t="s">
         <v>1304</v>
       </c>
     </row>
-    <row r="358" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>1913</v>
       </c>
@@ -13766,13 +13769,13 @@
         <v>1110</v>
       </c>
       <c r="H358" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="I358" t="s">
         <v>1304</v>
       </c>
     </row>
-    <row r="359" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>1913</v>
       </c>
@@ -13792,13 +13795,13 @@
         <v>1111</v>
       </c>
       <c r="H359" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="I359" t="s">
         <v>1304</v>
       </c>
     </row>
-    <row r="360" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>1913</v>
       </c>
@@ -13818,13 +13821,13 @@
         <v>1112</v>
       </c>
       <c r="H360" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="I360" t="s">
         <v>1304</v>
       </c>
     </row>
-    <row r="361" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>1913</v>
       </c>
@@ -13844,7 +13847,7 @@
         <v>943</v>
       </c>
       <c r="H361" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="I361" t="s">
         <v>1304</v>
@@ -13856,7 +13859,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="362" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>1913</v>
       </c>
@@ -13882,7 +13885,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="363" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>1913</v>
       </c>
@@ -13908,7 +13911,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="364" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>1913</v>
       </c>
@@ -13934,7 +13937,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="365" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>1913</v>
       </c>
@@ -13966,7 +13969,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="366" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>1913</v>
       </c>
@@ -13995,7 +13998,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="367" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>1913</v>
       </c>
@@ -14024,7 +14027,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="368" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>1913</v>
       </c>
@@ -14053,7 +14056,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="369" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>1913</v>
       </c>
@@ -14079,7 +14082,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="370" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>1913</v>
       </c>
@@ -14105,7 +14108,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="371" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>1913</v>
       </c>
@@ -14131,7 +14134,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="372" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>1913</v>
       </c>
@@ -14157,7 +14160,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="373" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>1913</v>
       </c>
@@ -14183,7 +14186,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="374" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>1913</v>
       </c>
@@ -14209,7 +14212,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="375" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>1913</v>
       </c>
@@ -14235,7 +14238,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="376" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>1913</v>
       </c>
@@ -14261,7 +14264,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="377" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>1913</v>
       </c>
@@ -14287,7 +14290,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="378" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>1913</v>
       </c>
@@ -14313,7 +14316,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="379" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>1913</v>
       </c>
@@ -14339,7 +14342,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="380" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>1913</v>
       </c>
@@ -14365,7 +14368,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="381" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>1913</v>
       </c>
@@ -14391,7 +14394,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="382" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>1913</v>
       </c>
@@ -14417,7 +14420,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="383" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>1913</v>
       </c>
@@ -14446,7 +14449,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="384" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>1913</v>
       </c>
@@ -14475,7 +14478,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="385" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>1913</v>
       </c>
@@ -14504,7 +14507,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="386" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>1913</v>
       </c>
@@ -14533,7 +14536,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="387" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>1913</v>
       </c>
@@ -14562,7 +14565,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="388" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>1913</v>
       </c>
@@ -14591,7 +14594,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="389" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>1913</v>
       </c>
@@ -14620,7 +14623,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="390" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>1913</v>
       </c>
@@ -14649,7 +14652,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="391" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>1913</v>
       </c>
@@ -14675,7 +14678,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="392" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>1913</v>
       </c>
@@ -14701,7 +14704,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="393" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>1913</v>
       </c>
@@ -14727,7 +14730,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="394" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>1913</v>
       </c>
@@ -14753,7 +14756,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="395" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>1913</v>
       </c>
@@ -14779,7 +14782,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="396" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>1913</v>
       </c>
@@ -14805,7 +14808,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="397" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>1913</v>
       </c>
@@ -14837,7 +14840,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="398" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>1913</v>
       </c>
@@ -14863,7 +14866,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="399" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>1913</v>
       </c>
@@ -14889,7 +14892,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="400" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>1913</v>
       </c>
@@ -14915,7 +14918,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="401" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>1913</v>
       </c>
@@ -14947,7 +14950,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="402" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>1913</v>
       </c>
@@ -14973,7 +14976,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="403" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>1913</v>
       </c>
@@ -14999,7 +15002,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="404" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>1913</v>
       </c>
@@ -15025,7 +15028,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="405" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>1913</v>
       </c>
@@ -15051,7 +15054,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="406" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>1913</v>
       </c>
@@ -15077,7 +15080,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="407" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>1913</v>
       </c>
@@ -15103,7 +15106,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="408" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>1913</v>
       </c>
@@ -15129,7 +15132,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="409" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>1913</v>
       </c>
@@ -15155,7 +15158,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="410" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>1913</v>
       </c>
@@ -15181,7 +15184,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="411" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>1913</v>
       </c>
@@ -15207,7 +15210,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="412" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>1913</v>
       </c>
@@ -15233,7 +15236,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="413" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>1913</v>
       </c>
@@ -15259,7 +15262,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="414" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>1913</v>
       </c>
@@ -15285,7 +15288,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="415" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>1913</v>
       </c>
@@ -15311,7 +15314,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="416" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>1913</v>
       </c>
@@ -15337,7 +15340,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="417" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>1913</v>
       </c>
@@ -15375,7 +15378,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="418" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A418">
         <v>1913</v>
       </c>
@@ -15401,7 +15404,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="419" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A419">
         <v>1913</v>
       </c>
@@ -15430,7 +15433,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="420" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A420">
         <v>1913</v>
       </c>
@@ -15456,7 +15459,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="421" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A421">
         <v>1913</v>
       </c>
@@ -15482,7 +15485,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="422" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A422">
         <v>1913</v>
       </c>
@@ -15508,7 +15511,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="423" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A423">
         <v>1913</v>
       </c>
@@ -15534,7 +15537,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="424" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A424">
         <v>1913</v>
       </c>
@@ -15560,7 +15563,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="425" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A425">
         <v>1913</v>
       </c>
@@ -15586,7 +15589,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="426" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A426">
         <v>1913</v>
       </c>
@@ -15612,7 +15615,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="427" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A427">
         <v>1913</v>
       </c>
@@ -15638,7 +15641,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="428" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A428">
         <v>1913</v>
       </c>
@@ -15664,7 +15667,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="429" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A429">
         <v>1913</v>
       </c>
@@ -15690,7 +15693,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="430" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A430">
         <v>1913</v>
       </c>
@@ -15716,7 +15719,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="431" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A431">
         <v>1913</v>
       </c>
@@ -15742,7 +15745,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="432" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A432">
         <v>1913</v>
       </c>
@@ -15768,7 +15771,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="433" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A433">
         <v>1913</v>
       </c>

--- a/data-migration/xlsx_1900-/1913_Winter.xlsx
+++ b/data-migration/xlsx_1900-/1913_Winter.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\TEMP REPOSITORY\VVZ 1833-2014\_XLSX_2024-05-22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD69C9C5-59C9-4116-BB19-5B1A5C976D99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C7B48B5-30C4-4500-B918-FBD564722677}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3517,9 +3517,6 @@
     <t>bachmann_a</t>
   </si>
   <si>
-    <t>jaberg_k</t>
-  </si>
-  <si>
     <t>herold_r</t>
   </si>
   <si>
@@ -3823,9 +3820,6 @@
     <t>meyer_a</t>
   </si>
   <si>
-    <t>escher_a</t>
-  </si>
-  <si>
     <t>huber_m</t>
   </si>
   <si>
@@ -3919,9 +3913,6 @@
     <t>tieche_m</t>
   </si>
   <si>
-    <t>nager _fr</t>
-  </si>
-  <si>
     <t>meyer-knonau_g</t>
   </si>
   <si>
@@ -3959,6 +3950,15 @@
   </si>
   <si>
     <t>Prof</t>
+  </si>
+  <si>
+    <t>escher_a2</t>
+  </si>
+  <si>
+    <t>jaberg_p</t>
+  </si>
+  <si>
+    <t>nager_fr</t>
   </si>
 </sst>
 </file>
@@ -4322,20 +4322,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N433"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
-      <selection activeCell="L190" sqref="L190"/>
+    <sheetView tabSelected="1" topLeftCell="A165" workbookViewId="0">
+      <selection activeCell="H178" sqref="H178"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="26.7109375" customWidth="1"/>
-    <col min="6" max="6" width="30.28515625" customWidth="1"/>
-    <col min="7" max="7" width="34.42578125" customWidth="1"/>
+    <col min="5" max="5" width="26.6640625" customWidth="1"/>
+    <col min="6" max="6" width="30.33203125" customWidth="1"/>
+    <col min="7" max="7" width="34.44140625" customWidth="1"/>
     <col min="8" max="8" width="33" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" customWidth="1"/>
+    <col min="10" max="10" width="10.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>1913</v>
       </c>
@@ -4358,10 +4358,10 @@
         <v>1148</v>
       </c>
       <c r="I1" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1913</v>
       </c>
@@ -4384,13 +4384,13 @@
         <v>1149</v>
       </c>
       <c r="I2" t="s">
-        <v>1303</v>
+        <v>1300</v>
       </c>
       <c r="J2" t="s">
-        <v>1305</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1913</v>
       </c>
@@ -4410,13 +4410,13 @@
         <v>872</v>
       </c>
       <c r="H3" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="I3" t="s">
-        <v>1304</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1913</v>
       </c>
@@ -4439,13 +4439,13 @@
         <v>1149</v>
       </c>
       <c r="I4" t="s">
-        <v>1303</v>
+        <v>1300</v>
       </c>
       <c r="J4" t="s">
-        <v>1305</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1913</v>
       </c>
@@ -4465,13 +4465,13 @@
         <v>874</v>
       </c>
       <c r="H5" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="I5" t="s">
-        <v>1304</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1913</v>
       </c>
@@ -4491,13 +4491,13 @@
         <v>875</v>
       </c>
       <c r="H6" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="I6" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1913</v>
       </c>
@@ -4520,10 +4520,10 @@
         <v>1151</v>
       </c>
       <c r="I7" t="s">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1913</v>
       </c>
@@ -4546,10 +4546,10 @@
         <v>1148</v>
       </c>
       <c r="I8" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1913</v>
       </c>
@@ -4572,10 +4572,10 @@
         <v>1148</v>
       </c>
       <c r="I9" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1913</v>
       </c>
@@ -4598,10 +4598,10 @@
         <v>1150</v>
       </c>
       <c r="I10" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1913</v>
       </c>
@@ -4624,10 +4624,10 @@
         <v>1150</v>
       </c>
       <c r="I11" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1913</v>
       </c>
@@ -4650,10 +4650,10 @@
         <v>1150</v>
       </c>
       <c r="I12" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1913</v>
       </c>
@@ -4673,13 +4673,13 @@
         <v>881</v>
       </c>
       <c r="H13" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="I13" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1913</v>
       </c>
@@ -4699,13 +4699,13 @@
         <v>882</v>
       </c>
       <c r="H14" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="I14" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1913</v>
       </c>
@@ -4728,10 +4728,10 @@
         <v>1152</v>
       </c>
       <c r="I15" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1913</v>
       </c>
@@ -4751,13 +4751,13 @@
         <v>883</v>
       </c>
       <c r="H16" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="I16" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1913</v>
       </c>
@@ -4780,10 +4780,10 @@
         <v>1152</v>
       </c>
       <c r="I17" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1913</v>
       </c>
@@ -4803,13 +4803,13 @@
         <v>885</v>
       </c>
       <c r="H18" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="I18" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1913</v>
       </c>
@@ -4829,13 +4829,13 @@
         <v>886</v>
       </c>
       <c r="H19" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="I19" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1913</v>
       </c>
@@ -4858,13 +4858,13 @@
         <v>1149</v>
       </c>
       <c r="I20" t="s">
-        <v>1303</v>
+        <v>1300</v>
       </c>
       <c r="J20" t="s">
-        <v>1305</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1913</v>
       </c>
@@ -4884,13 +4884,13 @@
         <v>888</v>
       </c>
       <c r="H21" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="I21" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1913</v>
       </c>
@@ -4913,10 +4913,10 @@
         <v>1148</v>
       </c>
       <c r="I22" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1913</v>
       </c>
@@ -4939,10 +4939,10 @@
         <v>1150</v>
       </c>
       <c r="I23" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1913</v>
       </c>
@@ -4965,10 +4965,10 @@
         <v>1152</v>
       </c>
       <c r="I24" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1913</v>
       </c>
@@ -4991,10 +4991,10 @@
         <v>1152</v>
       </c>
       <c r="I25" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1913</v>
       </c>
@@ -5014,13 +5014,13 @@
         <v>890</v>
       </c>
       <c r="H26" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="I26" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>1913</v>
       </c>
@@ -5043,10 +5043,10 @@
         <v>1153</v>
       </c>
       <c r="I27" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1913</v>
       </c>
@@ -5069,10 +5069,10 @@
         <v>1154</v>
       </c>
       <c r="I28" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1913</v>
       </c>
@@ -5095,10 +5095,10 @@
         <v>1154</v>
       </c>
       <c r="I29" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>1913</v>
       </c>
@@ -5121,10 +5121,10 @@
         <v>1154</v>
       </c>
       <c r="I30" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>1913</v>
       </c>
@@ -5147,10 +5147,10 @@
         <v>1155</v>
       </c>
       <c r="I31" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>1913</v>
       </c>
@@ -5173,13 +5173,13 @@
         <v>1156</v>
       </c>
       <c r="I32" t="s">
-        <v>1303</v>
+        <v>1300</v>
       </c>
       <c r="J32" t="s">
-        <v>1307</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>1913</v>
       </c>
@@ -5202,13 +5202,13 @@
         <v>1156</v>
       </c>
       <c r="I33" t="s">
-        <v>1303</v>
+        <v>1300</v>
       </c>
       <c r="J33" t="s">
-        <v>1307</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>1913</v>
       </c>
@@ -5228,13 +5228,13 @@
         <v>897</v>
       </c>
       <c r="H34" t="s">
-        <v>1267</v>
+        <v>1310</v>
       </c>
       <c r="I34" t="s">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>1913</v>
       </c>
@@ -5257,10 +5257,10 @@
         <v>1155</v>
       </c>
       <c r="I35" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>1913</v>
       </c>
@@ -5283,10 +5283,10 @@
         <v>1157</v>
       </c>
       <c r="I36" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>1913</v>
       </c>
@@ -5309,10 +5309,10 @@
         <v>1153</v>
       </c>
       <c r="I37" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>1913</v>
       </c>
@@ -5335,10 +5335,10 @@
         <v>1157</v>
       </c>
       <c r="I38" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>1913</v>
       </c>
@@ -5361,10 +5361,10 @@
         <v>1153</v>
       </c>
       <c r="I39" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>1913</v>
       </c>
@@ -5387,10 +5387,10 @@
         <v>1157</v>
       </c>
       <c r="I40" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>1913</v>
       </c>
@@ -5413,10 +5413,10 @@
         <v>1157</v>
       </c>
       <c r="I41" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>1913</v>
       </c>
@@ -5436,13 +5436,13 @@
         <v>905</v>
       </c>
       <c r="H42" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="I42" t="s">
-        <v>1304</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>1913</v>
       </c>
@@ -5462,13 +5462,13 @@
         <v>906</v>
       </c>
       <c r="H43" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="I43" t="s">
-        <v>1304</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>1913</v>
       </c>
@@ -5491,10 +5491,10 @@
         <v>1158</v>
       </c>
       <c r="I44" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>1913</v>
       </c>
@@ -5517,10 +5517,10 @@
         <v>1158</v>
       </c>
       <c r="I45" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>1913</v>
       </c>
@@ -5543,10 +5543,10 @@
         <v>1159</v>
       </c>
       <c r="I46" t="s">
-        <v>1308</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>1913</v>
       </c>
@@ -5569,13 +5569,13 @@
         <v>1160</v>
       </c>
       <c r="I47" t="s">
-        <v>1303</v>
+        <v>1300</v>
       </c>
       <c r="J47" t="s">
-        <v>1305</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>1913</v>
       </c>
@@ -5598,10 +5598,10 @@
         <v>1161</v>
       </c>
       <c r="I48" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>1913</v>
       </c>
@@ -5624,13 +5624,13 @@
         <v>1160</v>
       </c>
       <c r="I49" t="s">
-        <v>1303</v>
+        <v>1300</v>
       </c>
       <c r="J49" t="s">
-        <v>1305</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>1913</v>
       </c>
@@ -5653,10 +5653,10 @@
         <v>1162</v>
       </c>
       <c r="I50" t="s">
-        <v>1308</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>1913</v>
       </c>
@@ -5679,10 +5679,10 @@
         <v>1161</v>
       </c>
       <c r="I51" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>1913</v>
       </c>
@@ -5705,10 +5705,10 @@
         <v>1161</v>
       </c>
       <c r="I52" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>1913</v>
       </c>
@@ -5731,10 +5731,10 @@
         <v>1163</v>
       </c>
       <c r="I53" t="s">
-        <v>1308</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>1913</v>
       </c>
@@ -5754,13 +5754,13 @@
         <v>917</v>
       </c>
       <c r="H54" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="I54" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>1913</v>
       </c>
@@ -5780,13 +5780,13 @@
         <v>918</v>
       </c>
       <c r="H55" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="I55" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>1913</v>
       </c>
@@ -5806,13 +5806,13 @@
         <v>919</v>
       </c>
       <c r="H56" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="I56" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>1913</v>
       </c>
@@ -5832,13 +5832,13 @@
         <v>920</v>
       </c>
       <c r="H57" t="s">
-        <v>1165</v>
+        <v>1311</v>
       </c>
       <c r="I57" t="s">
-        <v>1308</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>1913</v>
       </c>
@@ -5858,13 +5858,13 @@
         <v>921</v>
       </c>
       <c r="H58" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="I58" t="s">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>1913</v>
       </c>
@@ -5884,13 +5884,13 @@
         <v>922</v>
       </c>
       <c r="H59" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="I59" t="s">
-        <v>1308</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>1913</v>
       </c>
@@ -5910,13 +5910,13 @@
         <v>923</v>
       </c>
       <c r="H60" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="I60" t="s">
-        <v>1308</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>1913</v>
       </c>
@@ -5939,10 +5939,10 @@
         <v>1153</v>
       </c>
       <c r="I61" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>1913</v>
       </c>
@@ -5965,10 +5965,10 @@
         <v>1154</v>
       </c>
       <c r="I62" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>1913</v>
       </c>
@@ -5991,10 +5991,10 @@
         <v>1154</v>
       </c>
       <c r="I63" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>1913</v>
       </c>
@@ -6017,10 +6017,10 @@
         <v>1154</v>
       </c>
       <c r="I64" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>1913</v>
       </c>
@@ -6043,10 +6043,10 @@
         <v>1155</v>
       </c>
       <c r="I65" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>1913</v>
       </c>
@@ -6069,10 +6069,10 @@
         <v>1155</v>
       </c>
       <c r="I66" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>1913</v>
       </c>
@@ -6092,13 +6092,13 @@
         <v>888</v>
       </c>
       <c r="H67" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="I67" t="s">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>1913</v>
       </c>
@@ -6121,10 +6121,10 @@
         <v>1159</v>
       </c>
       <c r="I68" t="s">
-        <v>1308</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>1913</v>
       </c>
@@ -6147,10 +6147,10 @@
         <v>1158</v>
       </c>
       <c r="I69" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>1913</v>
       </c>
@@ -6170,13 +6170,13 @@
         <v>929</v>
       </c>
       <c r="H70" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="I70" t="s">
-        <v>1304</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>1913</v>
       </c>
@@ -6199,13 +6199,13 @@
         <v>1160</v>
       </c>
       <c r="I71" t="s">
-        <v>1303</v>
+        <v>1300</v>
       </c>
       <c r="J71" t="s">
-        <v>1305</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>1913</v>
       </c>
@@ -6228,10 +6228,10 @@
         <v>1161</v>
       </c>
       <c r="I72" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>1913</v>
       </c>
@@ -6254,10 +6254,10 @@
         <v>1161</v>
       </c>
       <c r="I73" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>1913</v>
       </c>
@@ -6280,13 +6280,13 @@
         <v>1160</v>
       </c>
       <c r="I74" t="s">
-        <v>1303</v>
+        <v>1300</v>
       </c>
       <c r="J74" t="s">
-        <v>1305</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>1913</v>
       </c>
@@ -6309,10 +6309,10 @@
         <v>1163</v>
       </c>
       <c r="I75" t="s">
-        <v>1308</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>1913</v>
       </c>
@@ -6332,13 +6332,13 @@
         <v>933</v>
       </c>
       <c r="H76" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="I76" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>1913</v>
       </c>
@@ -6358,13 +6358,13 @@
         <v>934</v>
       </c>
       <c r="H77" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="I77" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>1913</v>
       </c>
@@ -6384,13 +6384,13 @@
         <v>935</v>
       </c>
       <c r="H78" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="I78" t="s">
-        <v>1304</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>1913</v>
       </c>
@@ -6410,13 +6410,13 @@
         <v>936</v>
       </c>
       <c r="H79" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="I79" t="s">
-        <v>1304</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>1913</v>
       </c>
@@ -6436,13 +6436,13 @@
         <v>937</v>
       </c>
       <c r="H80" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="I80" t="s">
-        <v>1308</v>
-      </c>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>1913</v>
       </c>
@@ -6462,13 +6462,13 @@
         <v>938</v>
       </c>
       <c r="H81" t="s">
-        <v>1309</v>
+        <v>1306</v>
       </c>
       <c r="I81" t="s">
-        <v>1308</v>
-      </c>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>1913</v>
       </c>
@@ -6488,13 +6488,13 @@
         <v>939</v>
       </c>
       <c r="H82" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="I82" t="s">
-        <v>1308</v>
-      </c>
-    </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>1913</v>
       </c>
@@ -6514,25 +6514,25 @@
         <v>940</v>
       </c>
       <c r="H83" t="s">
+        <v>1171</v>
+      </c>
+      <c r="I83" t="s">
+        <v>1300</v>
+      </c>
+      <c r="K83" t="s">
         <v>1172</v>
       </c>
-      <c r="I83" t="s">
+      <c r="L83" t="s">
+        <v>1300</v>
+      </c>
+      <c r="M83" t="s">
+        <v>1174</v>
+      </c>
+      <c r="N83" t="s">
         <v>1303</v>
       </c>
-      <c r="K83" t="s">
-        <v>1173</v>
-      </c>
-      <c r="L83" t="s">
-        <v>1303</v>
-      </c>
-      <c r="M83" t="s">
-        <v>1175</v>
-      </c>
-      <c r="N83" t="s">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>1913</v>
       </c>
@@ -6555,13 +6555,13 @@
         <v>941</v>
       </c>
       <c r="H84" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="I84" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>1913</v>
       </c>
@@ -6584,13 +6584,13 @@
         <v>942</v>
       </c>
       <c r="H85" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="I85" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>1913</v>
       </c>
@@ -6610,13 +6610,13 @@
         <v>943</v>
       </c>
       <c r="H86" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="I86" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>1913</v>
       </c>
@@ -6639,13 +6639,13 @@
         <v>944</v>
       </c>
       <c r="H87" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="I87" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>1913</v>
       </c>
@@ -6665,13 +6665,13 @@
         <v>945</v>
       </c>
       <c r="H88" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="I88" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>1913</v>
       </c>
@@ -6691,13 +6691,13 @@
         <v>946</v>
       </c>
       <c r="H89" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="I89" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>1913</v>
       </c>
@@ -6717,13 +6717,13 @@
         <v>947</v>
       </c>
       <c r="H90" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="I90" t="s">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>1913</v>
       </c>
@@ -6743,13 +6743,13 @@
         <v>948</v>
       </c>
       <c r="H91" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="I91" t="s">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>1913</v>
       </c>
@@ -6769,13 +6769,13 @@
         <v>871</v>
       </c>
       <c r="H92" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="I92" t="s">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>1913</v>
       </c>
@@ -6795,13 +6795,13 @@
         <v>949</v>
       </c>
       <c r="H93" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="I93" t="s">
-        <v>1304</v>
-      </c>
-    </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>1913</v>
       </c>
@@ -6821,13 +6821,13 @@
         <v>943</v>
       </c>
       <c r="H94" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="I94" t="s">
-        <v>1304</v>
-      </c>
-    </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>1913</v>
       </c>
@@ -6847,13 +6847,13 @@
         <v>950</v>
       </c>
       <c r="H95" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="I95" t="s">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>1913</v>
       </c>
@@ -6873,13 +6873,13 @@
         <v>951</v>
       </c>
       <c r="H96" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="I96" t="s">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>1913</v>
       </c>
@@ -6899,13 +6899,13 @@
         <v>952</v>
       </c>
       <c r="H97" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="I97" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>1913</v>
       </c>
@@ -6925,13 +6925,13 @@
         <v>953</v>
       </c>
       <c r="H98" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="I98" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>1913</v>
       </c>
@@ -6951,13 +6951,13 @@
         <v>954</v>
       </c>
       <c r="H99" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="I99" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>1913</v>
       </c>
@@ -6977,13 +6977,13 @@
         <v>955</v>
       </c>
       <c r="H100" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="I100" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>1913</v>
       </c>
@@ -7003,13 +7003,13 @@
         <v>956</v>
       </c>
       <c r="H101" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="I101" t="s">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>1913</v>
       </c>
@@ -7029,19 +7029,19 @@
         <v>871</v>
       </c>
       <c r="H102" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="I102" t="s">
+        <v>1300</v>
+      </c>
+      <c r="K102" t="s">
+        <v>1269</v>
+      </c>
+      <c r="L102" t="s">
         <v>1303</v>
       </c>
-      <c r="K102" t="s">
-        <v>1271</v>
-      </c>
-      <c r="L102" t="s">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>1913</v>
       </c>
@@ -7061,13 +7061,13 @@
         <v>951</v>
       </c>
       <c r="H103" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="I103" t="s">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>1913</v>
       </c>
@@ -7087,16 +7087,16 @@
         <v>957</v>
       </c>
       <c r="H104" t="s">
-        <v>1301</v>
+        <v>1298</v>
       </c>
       <c r="I104" t="s">
-        <v>1303</v>
+        <v>1300</v>
       </c>
       <c r="J104" t="s">
-        <v>1305</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>1913</v>
       </c>
@@ -7116,16 +7116,16 @@
         <v>958</v>
       </c>
       <c r="H105" t="s">
-        <v>1301</v>
+        <v>1298</v>
       </c>
       <c r="I105" t="s">
-        <v>1303</v>
+        <v>1300</v>
       </c>
       <c r="J105" t="s">
-        <v>1305</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>1913</v>
       </c>
@@ -7145,16 +7145,16 @@
         <v>959</v>
       </c>
       <c r="H106" t="s">
-        <v>1301</v>
+        <v>1298</v>
       </c>
       <c r="I106" t="s">
-        <v>1303</v>
+        <v>1300</v>
       </c>
       <c r="J106" t="s">
-        <v>1305</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>1913</v>
       </c>
@@ -7174,16 +7174,16 @@
         <v>960</v>
       </c>
       <c r="H107" t="s">
-        <v>1301</v>
+        <v>1298</v>
       </c>
       <c r="I107" t="s">
-        <v>1303</v>
+        <v>1300</v>
       </c>
       <c r="J107" t="s">
-        <v>1305</v>
-      </c>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>1913</v>
       </c>
@@ -7203,13 +7203,13 @@
         <v>961</v>
       </c>
       <c r="H108" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="I108" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>1913</v>
       </c>
@@ -7229,13 +7229,13 @@
         <v>962</v>
       </c>
       <c r="H109" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="I109" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>1913</v>
       </c>
@@ -7255,13 +7255,13 @@
         <v>963</v>
       </c>
       <c r="H110" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="I110" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>1913</v>
       </c>
@@ -7281,13 +7281,13 @@
         <v>964</v>
       </c>
       <c r="H111" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="I111" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>1913</v>
       </c>
@@ -7307,13 +7307,13 @@
         <v>927</v>
       </c>
       <c r="H112" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="I112" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>1913</v>
       </c>
@@ -7333,13 +7333,13 @@
         <v>943</v>
       </c>
       <c r="H113" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="I113" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>1913</v>
       </c>
@@ -7359,13 +7359,13 @@
         <v>965</v>
       </c>
       <c r="H114" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="I114" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>1913</v>
       </c>
@@ -7385,13 +7385,13 @@
         <v>966</v>
       </c>
       <c r="H115" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="I115" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>1913</v>
       </c>
@@ -7411,13 +7411,13 @@
         <v>967</v>
       </c>
       <c r="H116" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="I116" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>1913</v>
       </c>
@@ -7437,13 +7437,13 @@
         <v>968</v>
       </c>
       <c r="H117" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="I117" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>1913</v>
       </c>
@@ -7463,13 +7463,13 @@
         <v>969</v>
       </c>
       <c r="H118" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="I118" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>1913</v>
       </c>
@@ -7489,13 +7489,13 @@
         <v>933</v>
       </c>
       <c r="H119" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="I119" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>1913</v>
       </c>
@@ -7515,13 +7515,13 @@
         <v>970</v>
       </c>
       <c r="H120" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="I120" t="s">
-        <v>1304</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>1913</v>
       </c>
@@ -7541,13 +7541,13 @@
         <v>971</v>
       </c>
       <c r="H121" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="I121" t="s">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>1913</v>
       </c>
@@ -7567,13 +7567,13 @@
         <v>925</v>
       </c>
       <c r="H122" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="I122" t="s">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>1913</v>
       </c>
@@ -7593,13 +7593,13 @@
         <v>972</v>
       </c>
       <c r="H123" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="I123" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>1913</v>
       </c>
@@ -7619,13 +7619,13 @@
         <v>973</v>
       </c>
       <c r="H124" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="I124" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>1913</v>
       </c>
@@ -7645,13 +7645,13 @@
         <v>974</v>
       </c>
       <c r="H125" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="I125" t="s">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>1913</v>
       </c>
@@ -7671,13 +7671,13 @@
         <v>975</v>
       </c>
       <c r="H126" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="I126" t="s">
-        <v>1304</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>1913</v>
       </c>
@@ -7697,13 +7697,13 @@
         <v>976</v>
       </c>
       <c r="H127" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="I127" t="s">
-        <v>1304</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>1913</v>
       </c>
@@ -7723,13 +7723,13 @@
         <v>977</v>
       </c>
       <c r="H128" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="I128" t="s">
-        <v>1304</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>1913</v>
       </c>
@@ -7749,13 +7749,13 @@
         <v>871</v>
       </c>
       <c r="H129" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="I129" t="s">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>1913</v>
       </c>
@@ -7775,13 +7775,13 @@
         <v>978</v>
       </c>
       <c r="H130" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="I130" t="s">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>1913</v>
       </c>
@@ -7801,13 +7801,13 @@
         <v>871</v>
       </c>
       <c r="H131" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="I131" t="s">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>1913</v>
       </c>
@@ -7827,13 +7827,13 @@
         <v>979</v>
       </c>
       <c r="H132" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="I132" t="s">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>1913</v>
       </c>
@@ -7853,13 +7853,13 @@
         <v>980</v>
       </c>
       <c r="H133" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="I133" t="s">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>1913</v>
       </c>
@@ -7879,13 +7879,13 @@
         <v>981</v>
       </c>
       <c r="H134" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="I134" t="s">
-        <v>1304</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>1913</v>
       </c>
@@ -7905,13 +7905,13 @@
         <v>982</v>
       </c>
       <c r="H135" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="I135" t="s">
-        <v>1304</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>1913</v>
       </c>
@@ -7931,13 +7931,13 @@
         <v>983</v>
       </c>
       <c r="H136" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="I136" t="s">
-        <v>1304</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>1913</v>
       </c>
@@ -7957,13 +7957,13 @@
         <v>951</v>
       </c>
       <c r="H137" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="I137" t="s">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>1913</v>
       </c>
@@ -7983,13 +7983,13 @@
         <v>984</v>
       </c>
       <c r="H138" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="I138" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>1913</v>
       </c>
@@ -8009,13 +8009,13 @@
         <v>951</v>
       </c>
       <c r="H139" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="I139" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>1913</v>
       </c>
@@ -8035,13 +8035,13 @@
         <v>985</v>
       </c>
       <c r="H140" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="I140" t="s">
-        <v>1304</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>1913</v>
       </c>
@@ -8061,13 +8061,13 @@
         <v>871</v>
       </c>
       <c r="H141" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="I141" t="s">
-        <v>1304</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>1913</v>
       </c>
@@ -8087,13 +8087,13 @@
         <v>986</v>
       </c>
       <c r="H142" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="I142" t="s">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>1913</v>
       </c>
@@ -8113,13 +8113,13 @@
         <v>871</v>
       </c>
       <c r="H143" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="I143" t="s">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>1913</v>
       </c>
@@ -8139,13 +8139,13 @@
         <v>951</v>
       </c>
       <c r="H144" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="I144" t="s">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>1913</v>
       </c>
@@ -8165,13 +8165,13 @@
         <v>871</v>
       </c>
       <c r="H145" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="I145" t="s">
-        <v>1304</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>1913</v>
       </c>
@@ -8191,13 +8191,13 @@
         <v>871</v>
       </c>
       <c r="H146" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="I146" t="s">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>1913</v>
       </c>
@@ -8217,13 +8217,13 @@
         <v>871</v>
       </c>
       <c r="H147" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="I147" t="s">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>1913</v>
       </c>
@@ -8243,13 +8243,13 @@
         <v>974</v>
       </c>
       <c r="H148" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="I148" t="s">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>1913</v>
       </c>
@@ -8269,13 +8269,13 @@
         <v>871</v>
       </c>
       <c r="H149" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="I149" t="s">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>1913</v>
       </c>
@@ -8295,13 +8295,13 @@
         <v>987</v>
       </c>
       <c r="H150" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="I150" t="s">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>1913</v>
       </c>
@@ -8321,13 +8321,13 @@
         <v>988</v>
       </c>
       <c r="H151" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="I151" t="s">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>1913</v>
       </c>
@@ -8347,13 +8347,13 @@
         <v>989</v>
       </c>
       <c r="H152" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="I152" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>1913</v>
       </c>
@@ -8373,13 +8373,13 @@
         <v>990</v>
       </c>
       <c r="H153" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="I153" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>1913</v>
       </c>
@@ -8399,13 +8399,13 @@
         <v>871</v>
       </c>
       <c r="H154" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="I154" t="s">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>1913</v>
       </c>
@@ -8425,13 +8425,13 @@
         <v>991</v>
       </c>
       <c r="H155" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="I155" t="s">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>1913</v>
       </c>
@@ -8451,13 +8451,13 @@
         <v>992</v>
       </c>
       <c r="H156" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
       <c r="I156" t="s">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>1913</v>
       </c>
@@ -8477,13 +8477,13 @@
         <v>993</v>
       </c>
       <c r="H157" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="I157" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>1913</v>
       </c>
@@ -8503,13 +8503,13 @@
         <v>994</v>
       </c>
       <c r="H158" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="I158" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>1913</v>
       </c>
@@ -8529,13 +8529,13 @@
         <v>995</v>
       </c>
       <c r="H159" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="I159" t="s">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>1913</v>
       </c>
@@ -8555,13 +8555,13 @@
         <v>996</v>
       </c>
       <c r="H160" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="I160" t="s">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>1913</v>
       </c>
@@ -8581,13 +8581,13 @@
         <v>997</v>
       </c>
       <c r="H161" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="I161" t="s">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>1913</v>
       </c>
@@ -8607,13 +8607,13 @@
         <v>998</v>
       </c>
       <c r="H162" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="I162" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>1913</v>
       </c>
@@ -8633,13 +8633,13 @@
         <v>999</v>
       </c>
       <c r="H163" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="I163" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>1913</v>
       </c>
@@ -8659,13 +8659,13 @@
         <v>951</v>
       </c>
       <c r="H164" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="I164" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>1913</v>
       </c>
@@ -8685,13 +8685,13 @@
         <v>933</v>
       </c>
       <c r="H165" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="I165" t="s">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>1913</v>
       </c>
@@ -8711,13 +8711,13 @@
         <v>871</v>
       </c>
       <c r="H166" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="I166" t="s">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>1913</v>
       </c>
@@ -8737,13 +8737,13 @@
         <v>964</v>
       </c>
       <c r="H167" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="I167" t="s">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>1913</v>
       </c>
@@ -8763,13 +8763,13 @@
         <v>884</v>
       </c>
       <c r="H168" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="I168" t="s">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>1913</v>
       </c>
@@ -8789,13 +8789,13 @@
         <v>871</v>
       </c>
       <c r="H169" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="I169" t="s">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>1913</v>
       </c>
@@ -8815,13 +8815,13 @@
         <v>1000</v>
       </c>
       <c r="H170" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="I170" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>1913</v>
       </c>
@@ -8841,13 +8841,13 @@
         <v>1001</v>
       </c>
       <c r="H171" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="I171" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>1913</v>
       </c>
@@ -8867,13 +8867,13 @@
         <v>1002</v>
       </c>
       <c r="H172" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="I172" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>1913</v>
       </c>
@@ -8893,13 +8893,13 @@
         <v>951</v>
       </c>
       <c r="H173" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="I173" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>1913</v>
       </c>
@@ -8919,13 +8919,13 @@
         <v>986</v>
       </c>
       <c r="H174" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="I174" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>1913</v>
       </c>
@@ -8945,13 +8945,13 @@
         <v>943</v>
       </c>
       <c r="H175" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="I175" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>1913</v>
       </c>
@@ -8971,13 +8971,13 @@
         <v>964</v>
       </c>
       <c r="H176" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="I176" t="s">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>1913</v>
       </c>
@@ -8997,13 +8997,13 @@
         <v>1003</v>
       </c>
       <c r="H177" t="s">
-        <v>1299</v>
+        <v>1312</v>
       </c>
       <c r="I177" t="s">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>1913</v>
       </c>
@@ -9023,13 +9023,13 @@
         <v>1004</v>
       </c>
       <c r="H178" t="s">
-        <v>1299</v>
+        <v>1312</v>
       </c>
       <c r="I178" t="s">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>1913</v>
       </c>
@@ -9049,13 +9049,13 @@
         <v>1005</v>
       </c>
       <c r="H179" t="s">
-        <v>1299</v>
+        <v>1312</v>
       </c>
       <c r="I179" t="s">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>1913</v>
       </c>
@@ -9075,13 +9075,13 @@
         <v>951</v>
       </c>
       <c r="H180" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="I180" t="s">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>1913</v>
       </c>
@@ -9101,13 +9101,13 @@
         <v>1006</v>
       </c>
       <c r="H181" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="I181" t="s">
-        <v>1312</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>1913</v>
       </c>
@@ -9127,13 +9127,13 @@
         <v>1007</v>
       </c>
       <c r="H182" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="I182" t="s">
-        <v>1312</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>1913</v>
       </c>
@@ -9153,13 +9153,13 @@
         <v>1008</v>
       </c>
       <c r="H183" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="I183" t="s">
-        <v>1312</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>1913</v>
       </c>
@@ -9179,13 +9179,13 @@
         <v>1009</v>
       </c>
       <c r="H184" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="I184" t="s">
-        <v>1312</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>1913</v>
       </c>
@@ -9205,13 +9205,13 @@
         <v>1010</v>
       </c>
       <c r="H185" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="I185" t="s">
-        <v>1312</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>1913</v>
       </c>
@@ -9231,13 +9231,13 @@
         <v>1011</v>
       </c>
       <c r="H186" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="I186" t="s">
-        <v>1312</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>1913</v>
       </c>
@@ -9257,13 +9257,13 @@
         <v>1012</v>
       </c>
       <c r="H187" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="I187" t="s">
-        <v>1312</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>1913</v>
       </c>
@@ -9283,13 +9283,13 @@
         <v>1013</v>
       </c>
       <c r="H188" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="I188" t="s">
-        <v>1312</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>1913</v>
       </c>
@@ -9309,13 +9309,13 @@
         <v>943</v>
       </c>
       <c r="H189" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="I189" t="s">
-        <v>1312</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>1913</v>
       </c>
@@ -9335,13 +9335,13 @@
         <v>1014</v>
       </c>
       <c r="H190" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="I190" t="s">
-        <v>1312</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>1913</v>
       </c>
@@ -9361,13 +9361,13 @@
         <v>943</v>
       </c>
       <c r="H191" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="I191" t="s">
-        <v>1312</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>1913</v>
       </c>
@@ -9387,13 +9387,13 @@
         <v>885</v>
       </c>
       <c r="H192" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="I192" t="s">
-        <v>1312</v>
-      </c>
-    </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>1913</v>
       </c>
@@ -9413,16 +9413,16 @@
         <v>1015</v>
       </c>
       <c r="H193" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="I193" t="s">
-        <v>1303</v>
+        <v>1300</v>
       </c>
       <c r="J193" t="s">
-        <v>1305</v>
-      </c>
-    </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>1913</v>
       </c>
@@ -9442,16 +9442,16 @@
         <v>1016</v>
       </c>
       <c r="H194" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="I194" t="s">
-        <v>1303</v>
+        <v>1300</v>
       </c>
       <c r="J194" t="s">
-        <v>1305</v>
-      </c>
-    </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>1913</v>
       </c>
@@ -9471,16 +9471,16 @@
         <v>1017</v>
       </c>
       <c r="H195" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="I195" t="s">
-        <v>1303</v>
+        <v>1300</v>
       </c>
       <c r="J195" t="s">
-        <v>1305</v>
-      </c>
-    </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>1913</v>
       </c>
@@ -9500,16 +9500,16 @@
         <v>943</v>
       </c>
       <c r="H196" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="I196" t="s">
-        <v>1303</v>
+        <v>1300</v>
       </c>
       <c r="J196" t="s">
-        <v>1305</v>
-      </c>
-    </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>1913</v>
       </c>
@@ -9529,13 +9529,13 @@
         <v>1018</v>
       </c>
       <c r="H197" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="I197" t="s">
-        <v>1304</v>
-      </c>
-    </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>1913</v>
       </c>
@@ -9555,13 +9555,13 @@
         <v>1019</v>
       </c>
       <c r="H198" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="I198" t="s">
-        <v>1304</v>
-      </c>
-    </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>1913</v>
       </c>
@@ -9581,13 +9581,13 @@
         <v>1020</v>
       </c>
       <c r="H199" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="I199" t="s">
-        <v>1304</v>
-      </c>
-    </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>1913</v>
       </c>
@@ -9607,13 +9607,13 @@
         <v>943</v>
       </c>
       <c r="H200" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="I200" t="s">
-        <v>1304</v>
-      </c>
-    </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>1913</v>
       </c>
@@ -9633,13 +9633,13 @@
         <v>1021</v>
       </c>
       <c r="H201" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="I201" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>1913</v>
       </c>
@@ -9659,13 +9659,13 @@
         <v>1022</v>
       </c>
       <c r="H202" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="I202" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>1913</v>
       </c>
@@ -9685,13 +9685,13 @@
         <v>1023</v>
       </c>
       <c r="H203" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="I203" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>1913</v>
       </c>
@@ -9711,13 +9711,13 @@
         <v>1024</v>
       </c>
       <c r="H204" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="I204" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>1913</v>
       </c>
@@ -9737,13 +9737,13 @@
         <v>1010</v>
       </c>
       <c r="H205" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="I205" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>1913</v>
       </c>
@@ -9763,13 +9763,13 @@
         <v>1025</v>
       </c>
       <c r="H206" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="I206" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>1913</v>
       </c>
@@ -9789,13 +9789,13 @@
         <v>1026</v>
       </c>
       <c r="H207" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="I207" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>1913</v>
       </c>
@@ -9815,13 +9815,13 @@
         <v>1027</v>
       </c>
       <c r="H208" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="I208" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>1913</v>
       </c>
@@ -9841,13 +9841,13 @@
         <v>1028</v>
       </c>
       <c r="H209" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="I209" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>1913</v>
       </c>
@@ -9867,13 +9867,13 @@
         <v>1029</v>
       </c>
       <c r="H210" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="I210" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>1913</v>
       </c>
@@ -9893,13 +9893,13 @@
         <v>1030</v>
       </c>
       <c r="H211" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="I211" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>1913</v>
       </c>
@@ -9919,13 +9919,13 @@
         <v>1031</v>
       </c>
       <c r="H212" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="I212" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>1913</v>
       </c>
@@ -9945,13 +9945,13 @@
         <v>1032</v>
       </c>
       <c r="H213" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="I213" t="s">
-        <v>1304</v>
-      </c>
-    </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>1913</v>
       </c>
@@ -9971,13 +9971,13 @@
         <v>1033</v>
       </c>
       <c r="H214" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="I214" t="s">
-        <v>1304</v>
-      </c>
-    </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>1913</v>
       </c>
@@ -9997,13 +9997,13 @@
         <v>1034</v>
       </c>
       <c r="H215" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="I215" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>1913</v>
       </c>
@@ -10023,13 +10023,13 @@
         <v>1035</v>
       </c>
       <c r="H216" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="I216" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>1913</v>
       </c>
@@ -10049,13 +10049,13 @@
         <v>1036</v>
       </c>
       <c r="H217" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="I217" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>1913</v>
       </c>
@@ -10075,13 +10075,13 @@
         <v>1037</v>
       </c>
       <c r="H218" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="I218" t="s">
-        <v>1304</v>
-      </c>
-    </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>1913</v>
       </c>
@@ -10101,13 +10101,13 @@
         <v>1038</v>
       </c>
       <c r="H219" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="I219" t="s">
-        <v>1304</v>
-      </c>
-    </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>1913</v>
       </c>
@@ -10127,13 +10127,13 @@
         <v>1039</v>
       </c>
       <c r="H220" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="I220" t="s">
-        <v>1304</v>
-      </c>
-    </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>1913</v>
       </c>
@@ -10153,13 +10153,13 @@
         <v>1040</v>
       </c>
       <c r="H221" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="I221" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>1913</v>
       </c>
@@ -10179,13 +10179,13 @@
         <v>1041</v>
       </c>
       <c r="H222" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="I222" t="s">
-        <v>1304</v>
-      </c>
-    </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>1913</v>
       </c>
@@ -10205,13 +10205,13 @@
         <v>976</v>
       </c>
       <c r="H223" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="I223" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>1913</v>
       </c>
@@ -10234,10 +10234,10 @@
         <v>1159</v>
       </c>
       <c r="I224" t="s">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>1913</v>
       </c>
@@ -10260,10 +10260,10 @@
         <v>1159</v>
       </c>
       <c r="I225" t="s">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>1913</v>
       </c>
@@ -10286,10 +10286,10 @@
         <v>1159</v>
       </c>
       <c r="I226" t="s">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>1913</v>
       </c>
@@ -10312,10 +10312,10 @@
         <v>1159</v>
       </c>
       <c r="I227" t="s">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>1913</v>
       </c>
@@ -10335,13 +10335,13 @@
         <v>1008</v>
       </c>
       <c r="H228" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="I228" t="s">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>1913</v>
       </c>
@@ -10361,13 +10361,13 @@
         <v>1045</v>
       </c>
       <c r="H229" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="I229" t="s">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>1913</v>
       </c>
@@ -10387,13 +10387,13 @@
         <v>1046</v>
       </c>
       <c r="H230" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="I230" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>1913</v>
       </c>
@@ -10413,13 +10413,13 @@
         <v>1047</v>
       </c>
       <c r="H231" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="I231" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>1913</v>
       </c>
@@ -10439,13 +10439,13 @@
         <v>915</v>
       </c>
       <c r="H232" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="I232" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>1913</v>
       </c>
@@ -10465,13 +10465,13 @@
         <v>1048</v>
       </c>
       <c r="H233" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="I233" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>1913</v>
       </c>
@@ -10491,13 +10491,13 @@
         <v>1049</v>
       </c>
       <c r="H234" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="I234" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>1913</v>
       </c>
@@ -10517,13 +10517,13 @@
         <v>888</v>
       </c>
       <c r="H235" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="I235" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>1913</v>
       </c>
@@ -10543,13 +10543,13 @@
         <v>905</v>
       </c>
       <c r="H236" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="I236" t="s">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>1913</v>
       </c>
@@ -10569,13 +10569,13 @@
         <v>1008</v>
       </c>
       <c r="H237" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="I237" t="s">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>1913</v>
       </c>
@@ -10595,13 +10595,13 @@
         <v>1050</v>
       </c>
       <c r="H238" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="I238" t="s">
-        <v>1308</v>
-      </c>
-    </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>1913</v>
       </c>
@@ -10621,13 +10621,13 @@
         <v>1051</v>
       </c>
       <c r="H239" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="I239" t="s">
-        <v>1308</v>
-      </c>
-    </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>1913</v>
       </c>
@@ -10647,13 +10647,13 @@
         <v>1052</v>
       </c>
       <c r="H240" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="I240" t="s">
-        <v>1308</v>
-      </c>
-    </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="241" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>1913</v>
       </c>
@@ -10673,13 +10673,13 @@
         <v>1053</v>
       </c>
       <c r="H241" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="I241" t="s">
-        <v>1308</v>
-      </c>
-    </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="242" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>1913</v>
       </c>
@@ -10699,13 +10699,13 @@
         <v>1054</v>
       </c>
       <c r="H242" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="I242" t="s">
-        <v>1308</v>
-      </c>
-    </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="243" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>1913</v>
       </c>
@@ -10728,10 +10728,10 @@
         <v>1149</v>
       </c>
       <c r="I243" t="s">
-        <v>1308</v>
-      </c>
-    </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="244" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>1913</v>
       </c>
@@ -10751,16 +10751,16 @@
         <v>1055</v>
       </c>
       <c r="H244" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="I244" t="s">
-        <v>1303</v>
+        <v>1300</v>
       </c>
       <c r="J244" t="s">
-        <v>1305</v>
-      </c>
-    </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="245" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>1913</v>
       </c>
@@ -10780,16 +10780,16 @@
         <v>1056</v>
       </c>
       <c r="H245" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="I245" t="s">
-        <v>1303</v>
+        <v>1300</v>
       </c>
       <c r="J245" t="s">
-        <v>1305</v>
-      </c>
-    </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="246" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>1913</v>
       </c>
@@ -10809,13 +10809,13 @@
         <v>1057</v>
       </c>
       <c r="H246" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="I246" t="s">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="247" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>1913</v>
       </c>
@@ -10835,13 +10835,13 @@
         <v>1057</v>
       </c>
       <c r="H247" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="I247" t="s">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="248" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>1913</v>
       </c>
@@ -10861,16 +10861,16 @@
         <v>1058</v>
       </c>
       <c r="H248" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="I248" t="s">
-        <v>1303</v>
+        <v>1300</v>
       </c>
       <c r="J248" t="s">
-        <v>1305</v>
-      </c>
-    </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="249" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>1913</v>
       </c>
@@ -10890,16 +10890,16 @@
         <v>1059</v>
       </c>
       <c r="H249" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="I249" t="s">
-        <v>1303</v>
+        <v>1300</v>
       </c>
       <c r="J249" t="s">
-        <v>1305</v>
-      </c>
-    </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="250" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>1913</v>
       </c>
@@ -10919,13 +10919,13 @@
         <v>871</v>
       </c>
       <c r="H250" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="I250" t="s">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="251" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>1913</v>
       </c>
@@ -10945,13 +10945,13 @@
         <v>871</v>
       </c>
       <c r="H251" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="I251" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="252" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>1913</v>
       </c>
@@ -10971,13 +10971,13 @@
         <v>1060</v>
       </c>
       <c r="H252" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
       <c r="I252" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="253" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>1913</v>
       </c>
@@ -10997,13 +10997,13 @@
         <v>1061</v>
       </c>
       <c r="H253" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
       <c r="I253" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="254" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>1913</v>
       </c>
@@ -11023,13 +11023,13 @@
         <v>1062</v>
       </c>
       <c r="H254" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="I254" t="s">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="255" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>1913</v>
       </c>
@@ -11049,13 +11049,13 @@
         <v>871</v>
       </c>
       <c r="H255" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
       <c r="I255" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="256" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>1913</v>
       </c>
@@ -11075,13 +11075,13 @@
         <v>1063</v>
       </c>
       <c r="H256" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="I256" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="257" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>1913</v>
       </c>
@@ -11101,13 +11101,13 @@
         <v>1064</v>
       </c>
       <c r="H257" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="I257" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="258" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>1913</v>
       </c>
@@ -11127,13 +11127,13 @@
         <v>988</v>
       </c>
       <c r="H258" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="I258" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="259" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>1913</v>
       </c>
@@ -11153,13 +11153,13 @@
         <v>910</v>
       </c>
       <c r="H259" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="I259" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="260" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>1913</v>
       </c>
@@ -11179,13 +11179,13 @@
         <v>1065</v>
       </c>
       <c r="H260" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
       <c r="I260" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="261" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>1913</v>
       </c>
@@ -11205,16 +11205,16 @@
         <v>1066</v>
       </c>
       <c r="H261" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="I261" t="s">
-        <v>1303</v>
+        <v>1300</v>
       </c>
       <c r="J261" t="s">
-        <v>1305</v>
-      </c>
-    </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="262" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>1913</v>
       </c>
@@ -11237,10 +11237,10 @@
         <v>1164</v>
       </c>
       <c r="I262" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="263" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>1913</v>
       </c>
@@ -11263,10 +11263,10 @@
         <v>1164</v>
       </c>
       <c r="I263" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="264" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>1913</v>
       </c>
@@ -11286,13 +11286,13 @@
         <v>871</v>
       </c>
       <c r="H264" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="I264" t="s">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="265" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>1913</v>
       </c>
@@ -11312,13 +11312,13 @@
         <v>1069</v>
       </c>
       <c r="H265" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="I265" t="s">
-        <v>1308</v>
-      </c>
-    </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="266" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>1913</v>
       </c>
@@ -11338,13 +11338,13 @@
         <v>951</v>
       </c>
       <c r="H266" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="I266" t="s">
-        <v>1308</v>
-      </c>
-    </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="267" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>1913</v>
       </c>
@@ -11364,13 +11364,13 @@
         <v>1070</v>
       </c>
       <c r="H267" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="I267" t="s">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="268" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>1913</v>
       </c>
@@ -11390,13 +11390,13 @@
         <v>1047</v>
       </c>
       <c r="H268" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="I268" t="s">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="269" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>1913</v>
       </c>
@@ -11416,13 +11416,13 @@
         <v>893</v>
       </c>
       <c r="H269" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="I269" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="270" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>1913</v>
       </c>
@@ -11442,13 +11442,13 @@
         <v>1071</v>
       </c>
       <c r="H270" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="I270" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="271" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>1913</v>
       </c>
@@ -11468,13 +11468,13 @@
         <v>923</v>
       </c>
       <c r="H271" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="I271" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="272" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>1913</v>
       </c>
@@ -11494,13 +11494,13 @@
         <v>1072</v>
       </c>
       <c r="H272" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="I272" t="s">
-        <v>1304</v>
-      </c>
-    </row>
-    <row r="273" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="273" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>1913</v>
       </c>
@@ -11520,13 +11520,13 @@
         <v>982</v>
       </c>
       <c r="H273" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="I273" t="s">
-        <v>1304</v>
-      </c>
-    </row>
-    <row r="274" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="274" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>1913</v>
       </c>
@@ -11546,13 +11546,13 @@
         <v>1073</v>
       </c>
       <c r="H274" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="I274" t="s">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="275" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="275" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>1913</v>
       </c>
@@ -11572,13 +11572,13 @@
         <v>926</v>
       </c>
       <c r="H275" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="I275" t="s">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="276" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="276" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>1913</v>
       </c>
@@ -11598,13 +11598,13 @@
         <v>1045</v>
       </c>
       <c r="H276" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="I276" t="s">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="277" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="277" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>1913</v>
       </c>
@@ -11624,13 +11624,13 @@
         <v>950</v>
       </c>
       <c r="H277" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="I277" t="s">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="278" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="278" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>1913</v>
       </c>
@@ -11650,13 +11650,13 @@
         <v>924</v>
       </c>
       <c r="H278" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="I278" t="s">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="279" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="279" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>1913</v>
       </c>
@@ -11676,13 +11676,13 @@
         <v>925</v>
       </c>
       <c r="H279" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="I279" t="s">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="280" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="280" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>1913</v>
       </c>
@@ -11702,13 +11702,13 @@
         <v>1074</v>
       </c>
       <c r="H280" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="I280" t="s">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="281" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="281" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>1913</v>
       </c>
@@ -11731,10 +11731,10 @@
         <v>1164</v>
       </c>
       <c r="I281" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="282" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="282" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>1913</v>
       </c>
@@ -11757,16 +11757,16 @@
         <v>1164</v>
       </c>
       <c r="I282" t="s">
-        <v>1303</v>
+        <v>1300</v>
       </c>
       <c r="K282" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="L282" t="s">
-        <v>1308</v>
-      </c>
-    </row>
-    <row r="283" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="283" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>1913</v>
       </c>
@@ -11786,13 +11786,13 @@
         <v>1075</v>
       </c>
       <c r="H283" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="I283" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="284" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="284" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>1913</v>
       </c>
@@ -11812,13 +11812,13 @@
         <v>1076</v>
       </c>
       <c r="H284" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="I284" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="285" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="285" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>1913</v>
       </c>
@@ -11838,13 +11838,13 @@
         <v>974</v>
       </c>
       <c r="H285" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="I285" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="286" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="286" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>1913</v>
       </c>
@@ -11864,13 +11864,13 @@
         <v>986</v>
       </c>
       <c r="H286" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="I286" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="287" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="287" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>1913</v>
       </c>
@@ -11890,13 +11890,13 @@
         <v>1077</v>
       </c>
       <c r="H287" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="I287" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="288" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="288" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>1913</v>
       </c>
@@ -11916,13 +11916,13 @@
         <v>1078</v>
       </c>
       <c r="H288" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="I288" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>1913</v>
       </c>
@@ -11942,13 +11942,13 @@
         <v>1079</v>
       </c>
       <c r="H289" t="s">
-        <v>1309</v>
+        <v>1306</v>
       </c>
       <c r="I289" t="s">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>1913</v>
       </c>
@@ -11968,13 +11968,13 @@
         <v>1080</v>
       </c>
       <c r="H290" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="I290" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="291" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>1913</v>
       </c>
@@ -11997,13 +11997,13 @@
         <v>1081</v>
       </c>
       <c r="H291" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="I291" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="292" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>1913</v>
       </c>
@@ -12026,13 +12026,13 @@
         <v>919</v>
       </c>
       <c r="H292" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="I292" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="293" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>1913</v>
       </c>
@@ -12052,13 +12052,13 @@
         <v>1082</v>
       </c>
       <c r="H293" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="I293" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>1913</v>
       </c>
@@ -12078,13 +12078,13 @@
         <v>1083</v>
       </c>
       <c r="H294" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="I294" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="295" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>1913</v>
       </c>
@@ -12104,13 +12104,13 @@
         <v>1084</v>
       </c>
       <c r="H295" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="I295" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="296" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>1913</v>
       </c>
@@ -12130,13 +12130,13 @@
         <v>880</v>
       </c>
       <c r="H296" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="I296" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="297" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>1913</v>
       </c>
@@ -12156,13 +12156,13 @@
         <v>888</v>
       </c>
       <c r="H297" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="I297" t="s">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="298" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>1913</v>
       </c>
@@ -12182,13 +12182,13 @@
         <v>871</v>
       </c>
       <c r="H298" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="I298" t="s">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>1913</v>
       </c>
@@ -12208,13 +12208,13 @@
         <v>871</v>
       </c>
       <c r="H299" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="I299" t="s">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="300" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>1913</v>
       </c>
@@ -12234,13 +12234,13 @@
         <v>1085</v>
       </c>
       <c r="H300" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="I300" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="301" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>1913</v>
       </c>
@@ -12260,13 +12260,13 @@
         <v>1086</v>
       </c>
       <c r="H301" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="I301" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>1913</v>
       </c>
@@ -12286,13 +12286,13 @@
         <v>1087</v>
       </c>
       <c r="H302" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="I302" t="s">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="303" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>1913</v>
       </c>
@@ -12312,13 +12312,13 @@
         <v>1088</v>
       </c>
       <c r="H303" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="I303" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>1913</v>
       </c>
@@ -12338,13 +12338,13 @@
         <v>1089</v>
       </c>
       <c r="H304" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="I304" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="305" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>1913</v>
       </c>
@@ -12364,13 +12364,13 @@
         <v>951</v>
       </c>
       <c r="H305" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="I305" t="s">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="306" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>1913</v>
       </c>
@@ -12390,13 +12390,13 @@
         <v>887</v>
       </c>
       <c r="H306" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="I306" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="307" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>1913</v>
       </c>
@@ -12416,13 +12416,13 @@
         <v>884</v>
       </c>
       <c r="H307" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="I307" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="308" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>1913</v>
       </c>
@@ -12442,13 +12442,13 @@
         <v>1060</v>
       </c>
       <c r="H308" t="s">
-        <v>1300</v>
+        <v>1297</v>
       </c>
       <c r="I308" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="309" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>1913</v>
       </c>
@@ -12468,13 +12468,13 @@
         <v>985</v>
       </c>
       <c r="H309" t="s">
-        <v>1300</v>
+        <v>1297</v>
       </c>
       <c r="I309" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="310" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>1913</v>
       </c>
@@ -12494,13 +12494,13 @@
         <v>1090</v>
       </c>
       <c r="H310" t="s">
-        <v>1300</v>
+        <v>1297</v>
       </c>
       <c r="I310" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="311" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>1913</v>
       </c>
@@ -12520,13 +12520,13 @@
         <v>1091</v>
       </c>
       <c r="H311" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="I311" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="312" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>1913</v>
       </c>
@@ -12546,13 +12546,13 @@
         <v>928</v>
       </c>
       <c r="H312" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="I312" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="313" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>1913</v>
       </c>
@@ -12572,13 +12572,13 @@
         <v>1073</v>
       </c>
       <c r="H313" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="I313" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="314" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>1913</v>
       </c>
@@ -12598,13 +12598,13 @@
         <v>951</v>
       </c>
       <c r="H314" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="I314" t="s">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="315" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>1913</v>
       </c>
@@ -12624,13 +12624,13 @@
         <v>988</v>
       </c>
       <c r="H315" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="I315" t="s">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="316" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>1913</v>
       </c>
@@ -12650,13 +12650,13 @@
         <v>925</v>
       </c>
       <c r="H316" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="I316" t="s">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="317" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>1913</v>
       </c>
@@ -12676,13 +12676,13 @@
         <v>980</v>
       </c>
       <c r="H317" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="I317" t="s">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="318" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>1913</v>
       </c>
@@ -12702,13 +12702,13 @@
         <v>1092</v>
       </c>
       <c r="H318" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="I318" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="319" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>1913</v>
       </c>
@@ -12728,13 +12728,13 @@
         <v>1093</v>
       </c>
       <c r="H319" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="I319" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="320" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>1913</v>
       </c>
@@ -12757,13 +12757,13 @@
         <v>1010</v>
       </c>
       <c r="H320" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="I320" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="321" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>1913</v>
       </c>
@@ -12783,13 +12783,13 @@
         <v>871</v>
       </c>
       <c r="H321" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="I321" t="s">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="322" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>1913</v>
       </c>
@@ -12809,13 +12809,13 @@
         <v>870</v>
       </c>
       <c r="H322" t="s">
-        <v>1300</v>
+        <v>1297</v>
       </c>
       <c r="I322" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="323" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>1913</v>
       </c>
@@ -12835,13 +12835,13 @@
         <v>890</v>
       </c>
       <c r="H323" t="s">
-        <v>1300</v>
+        <v>1297</v>
       </c>
       <c r="I323" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="324" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>1913</v>
       </c>
@@ -12861,13 +12861,13 @@
         <v>1094</v>
       </c>
       <c r="H324" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="I324" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="325" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>1913</v>
       </c>
@@ -12887,13 +12887,13 @@
         <v>1095</v>
       </c>
       <c r="H325" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="I325" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="326" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>1913</v>
       </c>
@@ -12913,13 +12913,13 @@
         <v>1096</v>
       </c>
       <c r="H326" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="I326" t="s">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="327" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>1913</v>
       </c>
@@ -12939,13 +12939,13 @@
         <v>871</v>
       </c>
       <c r="H327" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="I327" t="s">
-        <v>1304</v>
-      </c>
-    </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="328" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>1913</v>
       </c>
@@ -12965,13 +12965,13 @@
         <v>951</v>
       </c>
       <c r="H328" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="I328" t="s">
-        <v>1304</v>
-      </c>
-    </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="329" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>1913</v>
       </c>
@@ -12991,13 +12991,13 @@
         <v>1008</v>
       </c>
       <c r="H329" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="I329" t="s">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="330" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>1913</v>
       </c>
@@ -13017,13 +13017,13 @@
         <v>925</v>
       </c>
       <c r="H330" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="I330" t="s">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="331" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>1913</v>
       </c>
@@ -13043,13 +13043,13 @@
         <v>871</v>
       </c>
       <c r="H331" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="I331" t="s">
-        <v>1304</v>
-      </c>
-    </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="332" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>1913</v>
       </c>
@@ -13072,13 +13072,13 @@
         <v>884</v>
       </c>
       <c r="H332" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="I332" t="s">
-        <v>1304</v>
-      </c>
-    </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>1913</v>
       </c>
@@ -13101,13 +13101,13 @@
         <v>887</v>
       </c>
       <c r="H333" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="I333" t="s">
-        <v>1304</v>
-      </c>
-    </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="334" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>1913</v>
       </c>
@@ -13127,13 +13127,13 @@
         <v>951</v>
       </c>
       <c r="H334" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="I334" t="s">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="335" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>1913</v>
       </c>
@@ -13153,13 +13153,13 @@
         <v>880</v>
       </c>
       <c r="H335" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="I335" t="s">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="336" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>1913</v>
       </c>
@@ -13179,13 +13179,13 @@
         <v>1001</v>
       </c>
       <c r="H336" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="I336" t="s">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="337" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>1913</v>
       </c>
@@ -13205,13 +13205,13 @@
         <v>988</v>
       </c>
       <c r="H337" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="I337" t="s">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="338" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>1913</v>
       </c>
@@ -13231,13 +13231,13 @@
         <v>1097</v>
       </c>
       <c r="H338" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="I338" t="s">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="339" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>1913</v>
       </c>
@@ -13257,13 +13257,13 @@
         <v>1098</v>
       </c>
       <c r="H339" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="I339" t="s">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="340" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>1913</v>
       </c>
@@ -13283,13 +13283,13 @@
         <v>1008</v>
       </c>
       <c r="H340" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="I340" t="s">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="341" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>1913</v>
       </c>
@@ -13309,13 +13309,13 @@
         <v>1099</v>
       </c>
       <c r="H341" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="I341" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="342" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>1913</v>
       </c>
@@ -13335,13 +13335,13 @@
         <v>1100</v>
       </c>
       <c r="H342" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="I342" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="343" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A343">
         <v>1913</v>
       </c>
@@ -13361,13 +13361,13 @@
         <v>1101</v>
       </c>
       <c r="H343" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="I343" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="344" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A344">
         <v>1913</v>
       </c>
@@ -13387,13 +13387,13 @@
         <v>973</v>
       </c>
       <c r="H344" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="I344" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="345" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>1913</v>
       </c>
@@ -13413,13 +13413,13 @@
         <v>1102</v>
       </c>
       <c r="H345" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="I345" t="s">
-        <v>1304</v>
-      </c>
-    </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="346" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A346">
         <v>1913</v>
       </c>
@@ -13439,13 +13439,13 @@
         <v>1103</v>
       </c>
       <c r="H346" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="I346" t="s">
-        <v>1304</v>
-      </c>
-    </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="347" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A347">
         <v>1913</v>
       </c>
@@ -13465,13 +13465,13 @@
         <v>1091</v>
       </c>
       <c r="H347" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="I347" t="s">
-        <v>1304</v>
-      </c>
-    </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="348" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A348">
         <v>1913</v>
       </c>
@@ -13491,13 +13491,13 @@
         <v>1104</v>
       </c>
       <c r="H348" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="I348" t="s">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="349" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A349">
         <v>1913</v>
       </c>
@@ -13517,13 +13517,13 @@
         <v>1105</v>
       </c>
       <c r="H349" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="I349" t="s">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="350" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A350">
         <v>1913</v>
       </c>
@@ -13543,13 +13543,13 @@
         <v>1106</v>
       </c>
       <c r="H350" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="I350" t="s">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="351" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A351">
         <v>1913</v>
       </c>
@@ -13569,13 +13569,13 @@
         <v>890</v>
       </c>
       <c r="H351" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="I351" t="s">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="352" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A352">
         <v>1913</v>
       </c>
@@ -13598,13 +13598,13 @@
         <v>1107</v>
       </c>
       <c r="H352" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="I352" t="s">
-        <v>1304</v>
-      </c>
-    </row>
-    <row r="353" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="353" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A353">
         <v>1913</v>
       </c>
@@ -13627,13 +13627,13 @@
         <v>884</v>
       </c>
       <c r="H353" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="I353" t="s">
-        <v>1304</v>
-      </c>
-    </row>
-    <row r="354" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="354" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A354">
         <v>1913</v>
       </c>
@@ -13656,13 +13656,13 @@
         <v>915</v>
       </c>
       <c r="H354" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="I354" t="s">
-        <v>1304</v>
-      </c>
-    </row>
-    <row r="355" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="355" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A355">
         <v>1913</v>
       </c>
@@ -13685,13 +13685,13 @@
         <v>1108</v>
       </c>
       <c r="H355" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="I355" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="356" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="356" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A356">
         <v>1913</v>
       </c>
@@ -13711,13 +13711,13 @@
         <v>1109</v>
       </c>
       <c r="H356" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="I356" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="357" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="357" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A357">
         <v>1913</v>
       </c>
@@ -13737,19 +13737,19 @@
         <v>943</v>
       </c>
       <c r="H357" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="I357" t="s">
-        <v>1303</v>
+        <v>1300</v>
       </c>
       <c r="K357" t="s">
-        <v>1311</v>
+        <v>1308</v>
       </c>
       <c r="L357" t="s">
-        <v>1304</v>
-      </c>
-    </row>
-    <row r="358" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="358" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A358">
         <v>1913</v>
       </c>
@@ -13769,13 +13769,13 @@
         <v>1110</v>
       </c>
       <c r="H358" t="s">
-        <v>1311</v>
+        <v>1308</v>
       </c>
       <c r="I358" t="s">
-        <v>1304</v>
-      </c>
-    </row>
-    <row r="359" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="359" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A359">
         <v>1913</v>
       </c>
@@ -13795,13 +13795,13 @@
         <v>1111</v>
       </c>
       <c r="H359" t="s">
-        <v>1311</v>
+        <v>1308</v>
       </c>
       <c r="I359" t="s">
-        <v>1304</v>
-      </c>
-    </row>
-    <row r="360" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="360" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A360">
         <v>1913</v>
       </c>
@@ -13821,13 +13821,13 @@
         <v>1112</v>
       </c>
       <c r="H360" t="s">
-        <v>1311</v>
+        <v>1308</v>
       </c>
       <c r="I360" t="s">
-        <v>1304</v>
-      </c>
-    </row>
-    <row r="361" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="361" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A361">
         <v>1913</v>
       </c>
@@ -13847,19 +13847,19 @@
         <v>943</v>
       </c>
       <c r="H361" t="s">
-        <v>1311</v>
+        <v>1308</v>
       </c>
       <c r="I361" t="s">
-        <v>1304</v>
+        <v>1301</v>
       </c>
       <c r="K361" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="L361" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="362" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="362" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A362">
         <v>1913</v>
       </c>
@@ -13879,13 +13879,13 @@
         <v>951</v>
       </c>
       <c r="H362" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="I362" t="s">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="363" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="363" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A363">
         <v>1913</v>
       </c>
@@ -13905,13 +13905,13 @@
         <v>871</v>
       </c>
       <c r="H363" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="I363" t="s">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="364" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="364" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A364">
         <v>1913</v>
       </c>
@@ -13931,13 +13931,13 @@
         <v>871</v>
       </c>
       <c r="H364" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="I364" t="s">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="365" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="365" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A365">
         <v>1913</v>
       </c>
@@ -13960,16 +13960,16 @@
         <v>1113</v>
       </c>
       <c r="H365" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="I365" t="s">
-        <v>1303</v>
+        <v>1300</v>
       </c>
       <c r="J365" t="s">
-        <v>1305</v>
-      </c>
-    </row>
-    <row r="366" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="366" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A366">
         <v>1913</v>
       </c>
@@ -13989,16 +13989,16 @@
         <v>943</v>
       </c>
       <c r="H366" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="I366" t="s">
-        <v>1303</v>
+        <v>1300</v>
       </c>
       <c r="J366" t="s">
-        <v>1305</v>
-      </c>
-    </row>
-    <row r="367" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="367" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A367">
         <v>1913</v>
       </c>
@@ -14018,16 +14018,16 @@
         <v>943</v>
       </c>
       <c r="H367" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="I367" t="s">
-        <v>1303</v>
+        <v>1300</v>
       </c>
       <c r="J367" t="s">
-        <v>1305</v>
-      </c>
-    </row>
-    <row r="368" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="368" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A368">
         <v>1913</v>
       </c>
@@ -14047,16 +14047,16 @@
         <v>1114</v>
       </c>
       <c r="H368" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="I368" t="s">
-        <v>1303</v>
+        <v>1300</v>
       </c>
       <c r="J368" t="s">
-        <v>1305</v>
-      </c>
-    </row>
-    <row r="369" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="369" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A369">
         <v>1913</v>
       </c>
@@ -14076,13 +14076,13 @@
         <v>1115</v>
       </c>
       <c r="H369" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="I369" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="370" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="370" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A370">
         <v>1913</v>
       </c>
@@ -14102,13 +14102,13 @@
         <v>1116</v>
       </c>
       <c r="H370" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="I370" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="371" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="371" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A371">
         <v>1913</v>
       </c>
@@ -14128,13 +14128,13 @@
         <v>1117</v>
       </c>
       <c r="H371" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="I371" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="372" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="372" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A372">
         <v>1913</v>
       </c>
@@ -14154,13 +14154,13 @@
         <v>1118</v>
       </c>
       <c r="H372" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="I372" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="373" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="373" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A373">
         <v>1913</v>
       </c>
@@ -14180,13 +14180,13 @@
         <v>1119</v>
       </c>
       <c r="H373" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="I373" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="374" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="374" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A374">
         <v>1913</v>
       </c>
@@ -14206,13 +14206,13 @@
         <v>1120</v>
       </c>
       <c r="H374" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="I374" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="375" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="375" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A375">
         <v>1913</v>
       </c>
@@ -14232,13 +14232,13 @@
         <v>1121</v>
       </c>
       <c r="H375" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="I375" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="376" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="376" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A376">
         <v>1913</v>
       </c>
@@ -14258,13 +14258,13 @@
         <v>1122</v>
       </c>
       <c r="H376" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="I376" t="s">
-        <v>1304</v>
-      </c>
-    </row>
-    <row r="377" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="377" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A377">
         <v>1913</v>
       </c>
@@ -14284,13 +14284,13 @@
         <v>1123</v>
       </c>
       <c r="H377" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="I377" t="s">
-        <v>1304</v>
-      </c>
-    </row>
-    <row r="378" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="378" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A378">
         <v>1913</v>
       </c>
@@ -14310,13 +14310,13 @@
         <v>971</v>
       </c>
       <c r="H378" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="I378" t="s">
-        <v>1304</v>
-      </c>
-    </row>
-    <row r="379" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="379" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A379">
         <v>1913</v>
       </c>
@@ -14336,13 +14336,13 @@
         <v>1009</v>
       </c>
       <c r="H379" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="I379" t="s">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="380" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="380" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A380">
         <v>1913</v>
       </c>
@@ -14362,13 +14362,13 @@
         <v>1124</v>
       </c>
       <c r="H380" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="I380" t="s">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="381" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="381" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A381">
         <v>1913</v>
       </c>
@@ -14388,13 +14388,13 @@
         <v>951</v>
       </c>
       <c r="H381" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="I381" t="s">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="382" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="382" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A382">
         <v>1913</v>
       </c>
@@ -14414,13 +14414,13 @@
         <v>951</v>
       </c>
       <c r="H382" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="I382" t="s">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="383" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="383" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A383">
         <v>1913</v>
       </c>
@@ -14443,13 +14443,13 @@
         <v>1125</v>
       </c>
       <c r="H383" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="I383" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="384" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="384" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A384">
         <v>1913</v>
       </c>
@@ -14472,13 +14472,13 @@
         <v>1126</v>
       </c>
       <c r="H384" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="I384" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="385" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="385" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A385">
         <v>1913</v>
       </c>
@@ -14501,13 +14501,13 @@
         <v>917</v>
       </c>
       <c r="H385" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="I385" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="386" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="386" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A386">
         <v>1913</v>
       </c>
@@ -14530,13 +14530,13 @@
         <v>943</v>
       </c>
       <c r="H386" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="I386" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="387" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="387" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A387">
         <v>1913</v>
       </c>
@@ -14559,13 +14559,13 @@
         <v>1127</v>
       </c>
       <c r="H387" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="I387" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="388" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="388" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A388">
         <v>1913</v>
       </c>
@@ -14588,13 +14588,13 @@
         <v>1128</v>
       </c>
       <c r="H388" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="I388" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="389" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="389" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A389">
         <v>1913</v>
       </c>
@@ -14617,13 +14617,13 @@
         <v>943</v>
       </c>
       <c r="H389" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="I389" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="390" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="390" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A390">
         <v>1913</v>
       </c>
@@ -14646,13 +14646,13 @@
         <v>1008</v>
       </c>
       <c r="H390" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="I390" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="391" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="391" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A391">
         <v>1913</v>
       </c>
@@ -14672,13 +14672,13 @@
         <v>871</v>
       </c>
       <c r="H391" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="I391" t="s">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="392" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="392" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A392">
         <v>1913</v>
       </c>
@@ -14698,13 +14698,13 @@
         <v>871</v>
       </c>
       <c r="H392" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="I392" t="s">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="393" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="393" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A393">
         <v>1913</v>
       </c>
@@ -14724,13 +14724,13 @@
         <v>871</v>
       </c>
       <c r="H393" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="I393" t="s">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="394" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="394" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A394">
         <v>1913</v>
       </c>
@@ -14753,10 +14753,10 @@
         <v>1163</v>
       </c>
       <c r="I394" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="395" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="395" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A395">
         <v>1913</v>
       </c>
@@ -14779,10 +14779,10 @@
         <v>1163</v>
       </c>
       <c r="I395" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="396" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="396" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A396">
         <v>1913</v>
       </c>
@@ -14805,10 +14805,10 @@
         <v>1163</v>
       </c>
       <c r="I396" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="397" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="397" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A397">
         <v>1913</v>
       </c>
@@ -14831,16 +14831,16 @@
         <v>1163</v>
       </c>
       <c r="I397" t="s">
+        <v>1300</v>
+      </c>
+      <c r="K397" t="s">
+        <v>1290</v>
+      </c>
+      <c r="L397" t="s">
         <v>1303</v>
       </c>
-      <c r="K397" t="s">
-        <v>1292</v>
-      </c>
-      <c r="L397" t="s">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="398" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="398" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A398">
         <v>1913</v>
       </c>
@@ -14863,10 +14863,10 @@
         <v>1163</v>
       </c>
       <c r="I398" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="399" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="399" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A399">
         <v>1913</v>
       </c>
@@ -14889,10 +14889,10 @@
         <v>1163</v>
       </c>
       <c r="I399" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="400" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="400" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A400">
         <v>1913</v>
       </c>
@@ -14912,13 +14912,13 @@
         <v>951</v>
       </c>
       <c r="H400" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="I400" t="s">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="401" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="401" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A401">
         <v>1913</v>
       </c>
@@ -14938,19 +14938,19 @@
         <v>1130</v>
       </c>
       <c r="H401" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="I401" t="s">
-        <v>1306</v>
+        <v>1303</v>
       </c>
       <c r="K401" t="s">
         <v>1163</v>
       </c>
       <c r="L401" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="402" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="402" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A402">
         <v>1913</v>
       </c>
@@ -14970,13 +14970,13 @@
         <v>1131</v>
       </c>
       <c r="H402" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="I402" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="403" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="403" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A403">
         <v>1913</v>
       </c>
@@ -14996,13 +14996,13 @@
         <v>1132</v>
       </c>
       <c r="H403" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="I403" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="404" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="404" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A404">
         <v>1913</v>
       </c>
@@ -15022,13 +15022,13 @@
         <v>1133</v>
       </c>
       <c r="H404" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="I404" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="405" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="405" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A405">
         <v>1913</v>
       </c>
@@ -15048,13 +15048,13 @@
         <v>1134</v>
       </c>
       <c r="H405" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="I405" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="406" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="406" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A406">
         <v>1913</v>
       </c>
@@ -15074,13 +15074,13 @@
         <v>1135</v>
       </c>
       <c r="H406" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="I406" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="407" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="407" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A407">
         <v>1913</v>
       </c>
@@ -15100,13 +15100,13 @@
         <v>1136</v>
       </c>
       <c r="H407" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="I407" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="408" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="408" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A408">
         <v>1913</v>
       </c>
@@ -15126,13 +15126,13 @@
         <v>971</v>
       </c>
       <c r="H408" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="I408" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="409" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="409" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A409">
         <v>1913</v>
       </c>
@@ -15152,13 +15152,13 @@
         <v>933</v>
       </c>
       <c r="H409" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="I409" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="410" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="410" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A410">
         <v>1913</v>
       </c>
@@ -15178,13 +15178,13 @@
         <v>918</v>
       </c>
       <c r="H410" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="I410" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="411" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="411" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A411">
         <v>1913</v>
       </c>
@@ -15204,13 +15204,13 @@
         <v>1137</v>
       </c>
       <c r="H411" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="I411" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="412" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="412" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A412">
         <v>1913</v>
       </c>
@@ -15230,13 +15230,13 @@
         <v>988</v>
       </c>
       <c r="H412" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="I412" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="413" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="413" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A413">
         <v>1913</v>
       </c>
@@ -15256,13 +15256,13 @@
         <v>1138</v>
       </c>
       <c r="H413" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="I413" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="414" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="414" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A414">
         <v>1913</v>
       </c>
@@ -15282,13 +15282,13 @@
         <v>951</v>
       </c>
       <c r="H414" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="I414" t="s">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="415" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="415" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A415">
         <v>1913</v>
       </c>
@@ -15308,13 +15308,13 @@
         <v>871</v>
       </c>
       <c r="H415" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="I415" t="s">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="416" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="416" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A416">
         <v>1913</v>
       </c>
@@ -15334,13 +15334,13 @@
         <v>1139</v>
       </c>
       <c r="H416" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="I416" t="s">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="417" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="417" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A417">
         <v>1913</v>
       </c>
@@ -15360,25 +15360,25 @@
         <v>1140</v>
       </c>
       <c r="H417" t="s">
+        <v>1257</v>
+      </c>
+      <c r="I417" t="s">
+        <v>1300</v>
+      </c>
+      <c r="K417" t="s">
         <v>1258</v>
       </c>
-      <c r="I417" t="s">
+      <c r="L417" t="s">
+        <v>1300</v>
+      </c>
+      <c r="M417" t="s">
+        <v>1263</v>
+      </c>
+      <c r="N417" t="s">
         <v>1303</v>
       </c>
-      <c r="K417" t="s">
-        <v>1259</v>
-      </c>
-      <c r="L417" t="s">
-        <v>1303</v>
-      </c>
-      <c r="M417" t="s">
-        <v>1264</v>
-      </c>
-      <c r="N417" t="s">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="418" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="418" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A418">
         <v>1913</v>
       </c>
@@ -15398,13 +15398,13 @@
         <v>1141</v>
       </c>
       <c r="H418" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="I418" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="419" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="419" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A419">
         <v>1913</v>
       </c>
@@ -15427,13 +15427,13 @@
         <v>1142</v>
       </c>
       <c r="H419" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="I419" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="420" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="420" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A420">
         <v>1913</v>
       </c>
@@ -15453,13 +15453,13 @@
         <v>1143</v>
       </c>
       <c r="H420" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="I420" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="421" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="421" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A421">
         <v>1913</v>
       </c>
@@ -15479,13 +15479,13 @@
         <v>1144</v>
       </c>
       <c r="H421" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="I421" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="422" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="422" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A422">
         <v>1913</v>
       </c>
@@ -15505,13 +15505,13 @@
         <v>871</v>
       </c>
       <c r="H422" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="I422" t="s">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="423" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="423" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A423">
         <v>1913</v>
       </c>
@@ -15531,13 +15531,13 @@
         <v>951</v>
       </c>
       <c r="H423" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="I423" t="s">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="424" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="424" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A424">
         <v>1913</v>
       </c>
@@ -15557,13 +15557,13 @@
         <v>988</v>
       </c>
       <c r="H424" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="I424" t="s">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="425" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="425" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A425">
         <v>1913</v>
       </c>
@@ -15583,13 +15583,13 @@
         <v>980</v>
       </c>
       <c r="H425" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="I425" t="s">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="426" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="426" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A426">
         <v>1913</v>
       </c>
@@ -15609,13 +15609,13 @@
         <v>951</v>
       </c>
       <c r="H426" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="I426" t="s">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="427" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="427" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A427">
         <v>1913</v>
       </c>
@@ -15635,13 +15635,13 @@
         <v>951</v>
       </c>
       <c r="H427" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="I427" t="s">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="428" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="428" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A428">
         <v>1913</v>
       </c>
@@ -15661,13 +15661,13 @@
         <v>951</v>
       </c>
       <c r="H428" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="I428" t="s">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="429" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="429" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A429">
         <v>1913</v>
       </c>
@@ -15687,13 +15687,13 @@
         <v>871</v>
       </c>
       <c r="H429" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="I429" t="s">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="430" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="430" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A430">
         <v>1913</v>
       </c>
@@ -15713,13 +15713,13 @@
         <v>1145</v>
       </c>
       <c r="H430" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="I430" t="s">
-        <v>1304</v>
-      </c>
-    </row>
-    <row r="431" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="431" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A431">
         <v>1913</v>
       </c>
@@ -15739,13 +15739,13 @@
         <v>871</v>
       </c>
       <c r="H431" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="I431" t="s">
-        <v>1304</v>
-      </c>
-    </row>
-    <row r="432" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="432" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A432">
         <v>1913</v>
       </c>
@@ -15765,13 +15765,13 @@
         <v>1146</v>
       </c>
       <c r="H432" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="I432" t="s">
-        <v>1304</v>
-      </c>
-    </row>
-    <row r="433" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="433" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A433">
         <v>1913</v>
       </c>
@@ -15791,13 +15791,14 @@
         <v>1147</v>
       </c>
       <c r="H433" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="I433" t="s">
-        <v>1304</v>
+        <v>1301</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data-migration/xlsx_1900-/1913_Winter.xlsx
+++ b/data-migration/xlsx_1900-/1913_Winter.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\TEMP REPOSITORY\VVZ 1833-2014\_XLSX_2024-05-22\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\TEMP_REPOSITORY\VVZ 1833-2014\_XLSX_2024-05-22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C7B48B5-30C4-4500-B918-FBD564722677}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63BB00AB-332E-4472-8A00-F967B67E81C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3574,9 +3574,6 @@
     <t>wyss_mo</t>
   </si>
   <si>
-    <t>roth_o</t>
-  </si>
-  <si>
     <t>sommer_e</t>
   </si>
   <si>
@@ -3799,9 +3796,6 @@
     <t>hescheler_k</t>
   </si>
   <si>
-    <t>standfuss_m</t>
-  </si>
-  <si>
     <t>bretscher_k</t>
   </si>
   <si>
@@ -3850,9 +3844,6 @@
     <t>fick_age</t>
   </si>
   <si>
-    <t>meyerrueegg_h</t>
-  </si>
-  <si>
     <t>meyerwirz_e</t>
   </si>
   <si>
@@ -3898,15 +3889,9 @@
     <t>schinz_h</t>
   </si>
   <si>
-    <t>vonschulthessrechberg_g</t>
-  </si>
-  <si>
     <t>koehler_l1</t>
   </si>
   <si>
-    <t>vonmonakow_c</t>
-  </si>
-  <si>
     <t>vonwyss_h1</t>
   </si>
   <si>
@@ -3916,9 +3901,6 @@
     <t>meyer-knonau_g</t>
   </si>
   <si>
-    <t>silberschmidt _w</t>
-  </si>
-  <si>
     <t>hitzigsteiner_h</t>
   </si>
   <si>
@@ -3959,6 +3941,24 @@
   </si>
   <si>
     <t>nager_fr</t>
+  </si>
+  <si>
+    <t>meyer-rueegg_h</t>
+  </si>
+  <si>
+    <t>monakow_c</t>
+  </si>
+  <si>
+    <t>schulthess_rg</t>
+  </si>
+  <si>
+    <t>roth_o2</t>
+  </si>
+  <si>
+    <t>standfuss_mr</t>
+  </si>
+  <si>
+    <t>silberschmidt_w</t>
   </si>
 </sst>
 </file>
@@ -3994,11 +3994,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -4322,11 +4325,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N433"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A165" workbookViewId="0">
-      <selection activeCell="H178" sqref="H178"/>
+    <sheetView tabSelected="1" topLeftCell="E88" workbookViewId="0">
+      <selection activeCell="H107" sqref="H107"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="5" max="5" width="26.6640625" customWidth="1"/>
     <col min="6" max="6" width="30.33203125" customWidth="1"/>
@@ -4358,7 +4361,7 @@
         <v>1148</v>
       </c>
       <c r="I1" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -4384,10 +4387,10 @@
         <v>1149</v>
       </c>
       <c r="I2" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
       <c r="J2" t="s">
-        <v>1302</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -4410,10 +4413,10 @@
         <v>872</v>
       </c>
       <c r="H3" t="s">
-        <v>1293</v>
+        <v>1289</v>
       </c>
       <c r="I3" t="s">
-        <v>1301</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -4439,10 +4442,10 @@
         <v>1149</v>
       </c>
       <c r="I4" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
       <c r="J4" t="s">
-        <v>1302</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -4465,10 +4468,10 @@
         <v>874</v>
       </c>
       <c r="H5" t="s">
-        <v>1293</v>
+        <v>1289</v>
       </c>
       <c r="I5" t="s">
-        <v>1301</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -4491,10 +4494,10 @@
         <v>875</v>
       </c>
       <c r="H6" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="I6" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -4520,7 +4523,7 @@
         <v>1151</v>
       </c>
       <c r="I7" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -4546,7 +4549,7 @@
         <v>1148</v>
       </c>
       <c r="I8" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -4572,7 +4575,7 @@
         <v>1148</v>
       </c>
       <c r="I9" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -4598,7 +4601,7 @@
         <v>1150</v>
       </c>
       <c r="I10" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -4624,7 +4627,7 @@
         <v>1150</v>
       </c>
       <c r="I11" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -4650,7 +4653,7 @@
         <v>1150</v>
       </c>
       <c r="I12" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -4673,10 +4676,10 @@
         <v>881</v>
       </c>
       <c r="H13" t="s">
-        <v>1292</v>
+        <v>1309</v>
       </c>
       <c r="I13" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -4699,10 +4702,10 @@
         <v>882</v>
       </c>
       <c r="H14" t="s">
-        <v>1292</v>
+        <v>1309</v>
       </c>
       <c r="I14" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -4728,7 +4731,7 @@
         <v>1152</v>
       </c>
       <c r="I15" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -4751,10 +4754,10 @@
         <v>883</v>
       </c>
       <c r="H16" t="s">
-        <v>1292</v>
+        <v>1309</v>
       </c>
       <c r="I16" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -4780,7 +4783,7 @@
         <v>1152</v>
       </c>
       <c r="I17" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -4803,10 +4806,10 @@
         <v>885</v>
       </c>
       <c r="H18" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="I18" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -4829,10 +4832,10 @@
         <v>886</v>
       </c>
       <c r="H19" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="I19" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -4858,10 +4861,10 @@
         <v>1149</v>
       </c>
       <c r="I20" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
       <c r="J20" t="s">
-        <v>1302</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -4884,10 +4887,10 @@
         <v>888</v>
       </c>
       <c r="H21" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="I21" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -4913,7 +4916,7 @@
         <v>1148</v>
       </c>
       <c r="I22" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
@@ -4939,7 +4942,7 @@
         <v>1150</v>
       </c>
       <c r="I23" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
@@ -4965,7 +4968,7 @@
         <v>1152</v>
       </c>
       <c r="I24" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
@@ -4991,7 +4994,7 @@
         <v>1152</v>
       </c>
       <c r="I25" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
@@ -5014,10 +5017,10 @@
         <v>890</v>
       </c>
       <c r="H26" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="I26" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
@@ -5043,7 +5046,7 @@
         <v>1153</v>
       </c>
       <c r="I27" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
@@ -5069,7 +5072,7 @@
         <v>1154</v>
       </c>
       <c r="I28" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
@@ -5095,7 +5098,7 @@
         <v>1154</v>
       </c>
       <c r="I29" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
@@ -5121,7 +5124,7 @@
         <v>1154</v>
       </c>
       <c r="I30" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
@@ -5147,7 +5150,7 @@
         <v>1155</v>
       </c>
       <c r="I31" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
@@ -5173,10 +5176,10 @@
         <v>1156</v>
       </c>
       <c r="I32" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
       <c r="J32" t="s">
-        <v>1304</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
@@ -5202,10 +5205,10 @@
         <v>1156</v>
       </c>
       <c r="I33" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
       <c r="J33" t="s">
-        <v>1304</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
@@ -5228,10 +5231,10 @@
         <v>897</v>
       </c>
       <c r="H34" t="s">
-        <v>1310</v>
+        <v>1304</v>
       </c>
       <c r="I34" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
@@ -5257,7 +5260,7 @@
         <v>1155</v>
       </c>
       <c r="I35" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
@@ -5283,7 +5286,7 @@
         <v>1157</v>
       </c>
       <c r="I36" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
@@ -5309,7 +5312,7 @@
         <v>1153</v>
       </c>
       <c r="I37" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
@@ -5335,7 +5338,7 @@
         <v>1157</v>
       </c>
       <c r="I38" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
@@ -5361,7 +5364,7 @@
         <v>1153</v>
       </c>
       <c r="I39" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
@@ -5387,7 +5390,7 @@
         <v>1157</v>
       </c>
       <c r="I40" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
@@ -5413,7 +5416,7 @@
         <v>1157</v>
       </c>
       <c r="I41" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
@@ -5436,10 +5439,10 @@
         <v>905</v>
       </c>
       <c r="H42" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="I42" t="s">
-        <v>1301</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
@@ -5462,10 +5465,10 @@
         <v>906</v>
       </c>
       <c r="H43" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="I43" t="s">
-        <v>1301</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
@@ -5491,7 +5494,7 @@
         <v>1158</v>
       </c>
       <c r="I44" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
@@ -5517,7 +5520,7 @@
         <v>1158</v>
       </c>
       <c r="I45" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
@@ -5543,7 +5546,7 @@
         <v>1159</v>
       </c>
       <c r="I46" t="s">
-        <v>1305</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
@@ -5569,10 +5572,10 @@
         <v>1160</v>
       </c>
       <c r="I47" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
       <c r="J47" t="s">
-        <v>1302</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
@@ -5598,7 +5601,7 @@
         <v>1161</v>
       </c>
       <c r="I48" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
@@ -5624,10 +5627,10 @@
         <v>1160</v>
       </c>
       <c r="I49" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
       <c r="J49" t="s">
-        <v>1302</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
@@ -5653,7 +5656,7 @@
         <v>1162</v>
       </c>
       <c r="I50" t="s">
-        <v>1305</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
@@ -5679,7 +5682,7 @@
         <v>1161</v>
       </c>
       <c r="I51" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
@@ -5705,7 +5708,7 @@
         <v>1161</v>
       </c>
       <c r="I52" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
@@ -5731,7 +5734,7 @@
         <v>1163</v>
       </c>
       <c r="I53" t="s">
-        <v>1305</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
@@ -5754,10 +5757,10 @@
         <v>917</v>
       </c>
       <c r="H54" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="I54" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
@@ -5780,10 +5783,10 @@
         <v>918</v>
       </c>
       <c r="H55" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="I55" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
@@ -5806,10 +5809,10 @@
         <v>919</v>
       </c>
       <c r="H56" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="I56" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
@@ -5832,10 +5835,10 @@
         <v>920</v>
       </c>
       <c r="H57" t="s">
-        <v>1311</v>
+        <v>1305</v>
       </c>
       <c r="I57" t="s">
-        <v>1305</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
@@ -5861,7 +5864,7 @@
         <v>1165</v>
       </c>
       <c r="I58" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
@@ -5887,7 +5890,7 @@
         <v>1166</v>
       </c>
       <c r="I59" t="s">
-        <v>1305</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
@@ -5910,10 +5913,10 @@
         <v>923</v>
       </c>
       <c r="H60" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="I60" t="s">
-        <v>1305</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
@@ -5939,7 +5942,7 @@
         <v>1153</v>
       </c>
       <c r="I61" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
@@ -5965,7 +5968,7 @@
         <v>1154</v>
       </c>
       <c r="I62" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
@@ -5991,7 +5994,7 @@
         <v>1154</v>
       </c>
       <c r="I63" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
@@ -6017,7 +6020,7 @@
         <v>1154</v>
       </c>
       <c r="I64" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.3">
@@ -6043,7 +6046,7 @@
         <v>1155</v>
       </c>
       <c r="I65" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.3">
@@ -6069,7 +6072,7 @@
         <v>1155</v>
       </c>
       <c r="I66" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.3">
@@ -6095,7 +6098,7 @@
         <v>1167</v>
       </c>
       <c r="I67" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.3">
@@ -6121,7 +6124,7 @@
         <v>1159</v>
       </c>
       <c r="I68" t="s">
-        <v>1305</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.3">
@@ -6147,7 +6150,7 @@
         <v>1158</v>
       </c>
       <c r="I69" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.3">
@@ -6170,10 +6173,10 @@
         <v>929</v>
       </c>
       <c r="H70" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="I70" t="s">
-        <v>1301</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.3">
@@ -6199,10 +6202,10 @@
         <v>1160</v>
       </c>
       <c r="I71" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
       <c r="J71" t="s">
-        <v>1302</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.3">
@@ -6228,7 +6231,7 @@
         <v>1161</v>
       </c>
       <c r="I72" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.3">
@@ -6254,7 +6257,7 @@
         <v>1161</v>
       </c>
       <c r="I73" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.3">
@@ -6280,10 +6283,10 @@
         <v>1160</v>
       </c>
       <c r="I74" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
       <c r="J74" t="s">
-        <v>1302</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.3">
@@ -6309,7 +6312,7 @@
         <v>1163</v>
       </c>
       <c r="I75" t="s">
-        <v>1305</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.3">
@@ -6332,10 +6335,10 @@
         <v>933</v>
       </c>
       <c r="H76" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="I76" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.3">
@@ -6358,10 +6361,10 @@
         <v>934</v>
       </c>
       <c r="H77" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="I77" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.3">
@@ -6387,7 +6390,7 @@
         <v>1168</v>
       </c>
       <c r="I78" t="s">
-        <v>1301</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.3">
@@ -6413,7 +6416,7 @@
         <v>1168</v>
       </c>
       <c r="I79" t="s">
-        <v>1301</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.3">
@@ -6439,7 +6442,7 @@
         <v>1169</v>
       </c>
       <c r="I80" t="s">
-        <v>1305</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.3">
@@ -6462,10 +6465,10 @@
         <v>938</v>
       </c>
       <c r="H81" t="s">
-        <v>1306</v>
+        <v>1300</v>
       </c>
       <c r="I81" t="s">
-        <v>1305</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.3">
@@ -6491,7 +6494,7 @@
         <v>1170</v>
       </c>
       <c r="I82" t="s">
-        <v>1305</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.3">
@@ -6517,19 +6520,19 @@
         <v>1171</v>
       </c>
       <c r="I83" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
       <c r="K83" t="s">
         <v>1172</v>
       </c>
       <c r="L83" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
       <c r="M83" t="s">
         <v>1174</v>
       </c>
       <c r="N83" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.3">
@@ -6558,7 +6561,7 @@
         <v>1171</v>
       </c>
       <c r="I84" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.3">
@@ -6587,7 +6590,7 @@
         <v>1171</v>
       </c>
       <c r="I85" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.3">
@@ -6613,7 +6616,7 @@
         <v>1171</v>
       </c>
       <c r="I86" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.3">
@@ -6642,7 +6645,7 @@
         <v>1172</v>
       </c>
       <c r="I87" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.3">
@@ -6668,7 +6671,7 @@
         <v>1172</v>
       </c>
       <c r="I88" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.3">
@@ -6694,7 +6697,7 @@
         <v>1172</v>
       </c>
       <c r="I89" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.3">
@@ -6720,7 +6723,7 @@
         <v>1173</v>
       </c>
       <c r="I90" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.3">
@@ -6746,7 +6749,7 @@
         <v>1174</v>
       </c>
       <c r="I91" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.3">
@@ -6772,7 +6775,7 @@
         <v>1174</v>
       </c>
       <c r="I92" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.3">
@@ -6795,10 +6798,10 @@
         <v>949</v>
       </c>
       <c r="H93" t="s">
-        <v>1294</v>
+        <v>1308</v>
       </c>
       <c r="I93" t="s">
-        <v>1301</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.3">
@@ -6821,10 +6824,10 @@
         <v>943</v>
       </c>
       <c r="H94" t="s">
-        <v>1294</v>
+        <v>1308</v>
       </c>
       <c r="I94" t="s">
-        <v>1301</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.3">
@@ -6850,7 +6853,7 @@
         <v>1175</v>
       </c>
       <c r="I95" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.3">
@@ -6876,7 +6879,7 @@
         <v>1175</v>
       </c>
       <c r="I96" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.3">
@@ -6902,7 +6905,7 @@
         <v>1176</v>
       </c>
       <c r="I97" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.3">
@@ -6928,7 +6931,7 @@
         <v>1176</v>
       </c>
       <c r="I98" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.3">
@@ -6954,7 +6957,7 @@
         <v>1176</v>
       </c>
       <c r="I99" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.3">
@@ -6980,7 +6983,7 @@
         <v>1176</v>
       </c>
       <c r="I100" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.3">
@@ -7003,10 +7006,10 @@
         <v>956</v>
       </c>
       <c r="H101" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="I101" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.3">
@@ -7032,13 +7035,13 @@
         <v>1176</v>
       </c>
       <c r="I102" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
       <c r="K102" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="L102" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.3">
@@ -7064,7 +7067,7 @@
         <v>1177</v>
       </c>
       <c r="I103" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.3">
@@ -7087,13 +7090,13 @@
         <v>957</v>
       </c>
       <c r="H104" t="s">
-        <v>1298</v>
+        <v>1312</v>
       </c>
       <c r="I104" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
       <c r="J104" t="s">
-        <v>1302</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.3">
@@ -7116,13 +7119,13 @@
         <v>958</v>
       </c>
       <c r="H105" t="s">
-        <v>1298</v>
+        <v>1312</v>
       </c>
       <c r="I105" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
       <c r="J105" t="s">
-        <v>1302</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.3">
@@ -7145,13 +7148,13 @@
         <v>959</v>
       </c>
       <c r="H106" t="s">
-        <v>1298</v>
+        <v>1312</v>
       </c>
       <c r="I106" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
       <c r="J106" t="s">
-        <v>1302</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.3">
@@ -7174,13 +7177,13 @@
         <v>960</v>
       </c>
       <c r="H107" t="s">
-        <v>1298</v>
+        <v>1312</v>
       </c>
       <c r="I107" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
       <c r="J107" t="s">
-        <v>1302</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.3">
@@ -7206,7 +7209,7 @@
         <v>1178</v>
       </c>
       <c r="I108" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.3">
@@ -7232,7 +7235,7 @@
         <v>1178</v>
       </c>
       <c r="I109" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.3">
@@ -7258,7 +7261,7 @@
         <v>1178</v>
       </c>
       <c r="I110" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.3">
@@ -7284,7 +7287,7 @@
         <v>1178</v>
       </c>
       <c r="I111" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.3">
@@ -7310,7 +7313,7 @@
         <v>1178</v>
       </c>
       <c r="I112" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.3">
@@ -7336,7 +7339,7 @@
         <v>1178</v>
       </c>
       <c r="I113" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.3">
@@ -7359,10 +7362,10 @@
         <v>965</v>
       </c>
       <c r="H114" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="I114" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.3">
@@ -7385,10 +7388,10 @@
         <v>966</v>
       </c>
       <c r="H115" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="I115" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.3">
@@ -7414,7 +7417,7 @@
         <v>1179</v>
       </c>
       <c r="I116" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.3">
@@ -7440,7 +7443,7 @@
         <v>1179</v>
       </c>
       <c r="I117" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.3">
@@ -7466,7 +7469,7 @@
         <v>1179</v>
       </c>
       <c r="I118" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.3">
@@ -7492,7 +7495,7 @@
         <v>1179</v>
       </c>
       <c r="I119" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.3">
@@ -7515,10 +7518,10 @@
         <v>970</v>
       </c>
       <c r="H120" t="s">
-        <v>1294</v>
+        <v>1308</v>
       </c>
       <c r="I120" t="s">
-        <v>1301</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.3">
@@ -7541,10 +7544,10 @@
         <v>971</v>
       </c>
       <c r="H121" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="I121" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.3">
@@ -7567,10 +7570,10 @@
         <v>925</v>
       </c>
       <c r="H122" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="I122" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.3">
@@ -7596,7 +7599,7 @@
         <v>1180</v>
       </c>
       <c r="I123" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.3">
@@ -7622,7 +7625,7 @@
         <v>1180</v>
       </c>
       <c r="I124" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.3">
@@ -7648,7 +7651,7 @@
         <v>1181</v>
       </c>
       <c r="I125" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.3">
@@ -7674,7 +7677,7 @@
         <v>1182</v>
       </c>
       <c r="I126" t="s">
-        <v>1301</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.3">
@@ -7700,7 +7703,7 @@
         <v>1182</v>
       </c>
       <c r="I127" t="s">
-        <v>1301</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.3">
@@ -7726,7 +7729,7 @@
         <v>1182</v>
       </c>
       <c r="I128" t="s">
-        <v>1301</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.3">
@@ -7749,10 +7752,10 @@
         <v>871</v>
       </c>
       <c r="H129" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="I129" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.3">
@@ -7775,10 +7778,10 @@
         <v>978</v>
       </c>
       <c r="H130" t="s">
-        <v>1184</v>
+        <v>1310</v>
       </c>
       <c r="I130" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.3">
@@ -7801,10 +7804,10 @@
         <v>871</v>
       </c>
       <c r="H131" t="s">
-        <v>1184</v>
+        <v>1310</v>
       </c>
       <c r="I131" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.3">
@@ -7827,10 +7830,10 @@
         <v>979</v>
       </c>
       <c r="H132" t="s">
-        <v>1184</v>
+        <v>1310</v>
       </c>
       <c r="I132" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.3">
@@ -7853,10 +7856,10 @@
         <v>980</v>
       </c>
       <c r="H133" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="I133" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.3">
@@ -7879,10 +7882,10 @@
         <v>981</v>
       </c>
       <c r="H134" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="I134" t="s">
-        <v>1301</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.3">
@@ -7905,10 +7908,10 @@
         <v>982</v>
       </c>
       <c r="H135" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="I135" t="s">
-        <v>1301</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.3">
@@ -7931,10 +7934,10 @@
         <v>983</v>
       </c>
       <c r="H136" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="I136" t="s">
-        <v>1301</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.3">
@@ -7957,10 +7960,10 @@
         <v>951</v>
       </c>
       <c r="H137" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="I137" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.3">
@@ -7983,10 +7986,10 @@
         <v>984</v>
       </c>
       <c r="H138" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="I138" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.3">
@@ -8009,10 +8012,10 @@
         <v>951</v>
       </c>
       <c r="H139" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="I139" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.3">
@@ -8035,10 +8038,10 @@
         <v>985</v>
       </c>
       <c r="H140" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="I140" t="s">
-        <v>1301</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.3">
@@ -8061,10 +8064,10 @@
         <v>871</v>
       </c>
       <c r="H141" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="I141" t="s">
-        <v>1301</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.3">
@@ -8087,10 +8090,10 @@
         <v>986</v>
       </c>
       <c r="H142" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="I142" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.3">
@@ -8113,10 +8116,10 @@
         <v>871</v>
       </c>
       <c r="H143" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="I143" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.3">
@@ -8139,10 +8142,10 @@
         <v>951</v>
       </c>
       <c r="H144" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="I144" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.3">
@@ -8165,10 +8168,10 @@
         <v>871</v>
       </c>
       <c r="H145" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="I145" t="s">
-        <v>1301</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.3">
@@ -8191,10 +8194,10 @@
         <v>871</v>
       </c>
       <c r="H146" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="I146" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.3">
@@ -8217,10 +8220,10 @@
         <v>871</v>
       </c>
       <c r="H147" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="I147" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.3">
@@ -8246,7 +8249,7 @@
         <v>1183</v>
       </c>
       <c r="I148" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.3">
@@ -8269,10 +8272,10 @@
         <v>871</v>
       </c>
       <c r="H149" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="I149" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.3">
@@ -8295,10 +8298,10 @@
         <v>987</v>
       </c>
       <c r="H150" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="I150" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.3">
@@ -8321,10 +8324,10 @@
         <v>988</v>
       </c>
       <c r="H151" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="I151" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.3">
@@ -8347,10 +8350,10 @@
         <v>989</v>
       </c>
       <c r="H152" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="I152" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.3">
@@ -8373,10 +8376,10 @@
         <v>990</v>
       </c>
       <c r="H153" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="I153" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.3">
@@ -8399,10 +8402,10 @@
         <v>871</v>
       </c>
       <c r="H154" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="I154" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.3">
@@ -8425,10 +8428,10 @@
         <v>991</v>
       </c>
       <c r="H155" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="I155" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.3">
@@ -8451,10 +8454,10 @@
         <v>992</v>
       </c>
       <c r="H156" t="s">
-        <v>1307</v>
+        <v>1301</v>
       </c>
       <c r="I156" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.3">
@@ -8477,10 +8480,10 @@
         <v>993</v>
       </c>
       <c r="H157" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="I157" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.3">
@@ -8503,10 +8506,10 @@
         <v>994</v>
       </c>
       <c r="H158" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="I158" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.3">
@@ -8528,11 +8531,11 @@
       <c r="G159" t="s">
         <v>995</v>
       </c>
-      <c r="H159" t="s">
-        <v>1276</v>
+      <c r="H159" s="1" t="s">
+        <v>1307</v>
       </c>
       <c r="I159" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.3">
@@ -8554,11 +8557,11 @@
       <c r="G160" t="s">
         <v>996</v>
       </c>
-      <c r="H160" t="s">
-        <v>1276</v>
+      <c r="H160" s="1" t="s">
+        <v>1307</v>
       </c>
       <c r="I160" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.3">
@@ -8581,10 +8584,10 @@
         <v>997</v>
       </c>
       <c r="H161" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
       <c r="I161" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.3">
@@ -8607,10 +8610,10 @@
         <v>998</v>
       </c>
       <c r="H162" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="I162" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.3">
@@ -8633,10 +8636,10 @@
         <v>999</v>
       </c>
       <c r="H163" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="I163" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.3">
@@ -8659,10 +8662,10 @@
         <v>951</v>
       </c>
       <c r="H164" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="I164" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.3">
@@ -8685,10 +8688,10 @@
         <v>933</v>
       </c>
       <c r="H165" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="I165" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.3">
@@ -8711,10 +8714,10 @@
         <v>871</v>
       </c>
       <c r="H166" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="I166" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.3">
@@ -8737,10 +8740,10 @@
         <v>964</v>
       </c>
       <c r="H167" t="s">
-        <v>1278</v>
+        <v>1275</v>
       </c>
       <c r="I167" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.3">
@@ -8763,10 +8766,10 @@
         <v>884</v>
       </c>
       <c r="H168" t="s">
-        <v>1278</v>
+        <v>1275</v>
       </c>
       <c r="I168" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.3">
@@ -8789,10 +8792,10 @@
         <v>871</v>
       </c>
       <c r="H169" t="s">
-        <v>1278</v>
+        <v>1275</v>
       </c>
       <c r="I169" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.3">
@@ -8815,10 +8818,10 @@
         <v>1000</v>
       </c>
       <c r="H170" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="I170" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.3">
@@ -8841,10 +8844,10 @@
         <v>1001</v>
       </c>
       <c r="H171" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="I171" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.3">
@@ -8867,10 +8870,10 @@
         <v>1002</v>
       </c>
       <c r="H172" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="I172" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.3">
@@ -8893,10 +8896,10 @@
         <v>951</v>
       </c>
       <c r="H173" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="I173" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.3">
@@ -8919,10 +8922,10 @@
         <v>986</v>
       </c>
       <c r="H174" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="I174" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.3">
@@ -8945,10 +8948,10 @@
         <v>943</v>
       </c>
       <c r="H175" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="I175" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.3">
@@ -8971,10 +8974,10 @@
         <v>964</v>
       </c>
       <c r="H176" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="I176" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.3">
@@ -8997,10 +9000,10 @@
         <v>1003</v>
       </c>
       <c r="H177" t="s">
-        <v>1312</v>
+        <v>1306</v>
       </c>
       <c r="I177" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.3">
@@ -9023,10 +9026,10 @@
         <v>1004</v>
       </c>
       <c r="H178" t="s">
-        <v>1312</v>
+        <v>1306</v>
       </c>
       <c r="I178" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.3">
@@ -9049,10 +9052,10 @@
         <v>1005</v>
       </c>
       <c r="H179" t="s">
-        <v>1312</v>
+        <v>1306</v>
       </c>
       <c r="I179" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.3">
@@ -9075,10 +9078,10 @@
         <v>951</v>
       </c>
       <c r="H180" t="s">
-        <v>1279</v>
+        <v>1276</v>
       </c>
       <c r="I180" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.3">
@@ -9101,10 +9104,10 @@
         <v>1006</v>
       </c>
       <c r="H181" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="I181" t="s">
-        <v>1309</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.3">
@@ -9127,10 +9130,10 @@
         <v>1007</v>
       </c>
       <c r="H182" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="I182" t="s">
-        <v>1309</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.3">
@@ -9153,10 +9156,10 @@
         <v>1008</v>
       </c>
       <c r="H183" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="I183" t="s">
-        <v>1309</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.3">
@@ -9179,10 +9182,10 @@
         <v>1009</v>
       </c>
       <c r="H184" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="I184" t="s">
-        <v>1309</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.3">
@@ -9205,10 +9208,10 @@
         <v>1010</v>
       </c>
       <c r="H185" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="I185" t="s">
-        <v>1309</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.3">
@@ -9231,10 +9234,10 @@
         <v>1011</v>
       </c>
       <c r="H186" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="I186" t="s">
-        <v>1309</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.3">
@@ -9257,10 +9260,10 @@
         <v>1012</v>
       </c>
       <c r="H187" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="I187" t="s">
-        <v>1309</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.3">
@@ -9283,10 +9286,10 @@
         <v>1013</v>
       </c>
       <c r="H188" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="I188" t="s">
-        <v>1309</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.3">
@@ -9309,10 +9312,10 @@
         <v>943</v>
       </c>
       <c r="H189" t="s">
-        <v>1280</v>
+        <v>1277</v>
       </c>
       <c r="I189" t="s">
-        <v>1309</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.3">
@@ -9335,10 +9338,10 @@
         <v>1014</v>
       </c>
       <c r="H190" t="s">
-        <v>1280</v>
+        <v>1277</v>
       </c>
       <c r="I190" t="s">
-        <v>1309</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.3">
@@ -9361,10 +9364,10 @@
         <v>943</v>
       </c>
       <c r="H191" t="s">
-        <v>1280</v>
+        <v>1277</v>
       </c>
       <c r="I191" t="s">
-        <v>1309</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.3">
@@ -9387,10 +9390,10 @@
         <v>885</v>
       </c>
       <c r="H192" t="s">
-        <v>1280</v>
+        <v>1277</v>
       </c>
       <c r="I192" t="s">
-        <v>1309</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.3">
@@ -9413,13 +9416,13 @@
         <v>1015</v>
       </c>
       <c r="H193" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="I193" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
       <c r="J193" t="s">
-        <v>1302</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.3">
@@ -9442,13 +9445,13 @@
         <v>1016</v>
       </c>
       <c r="H194" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="I194" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
       <c r="J194" t="s">
-        <v>1302</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.3">
@@ -9471,13 +9474,13 @@
         <v>1017</v>
       </c>
       <c r="H195" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="I195" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
       <c r="J195" t="s">
-        <v>1302</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.3">
@@ -9500,13 +9503,13 @@
         <v>943</v>
       </c>
       <c r="H196" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="I196" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
       <c r="J196" t="s">
-        <v>1302</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.3">
@@ -9529,10 +9532,10 @@
         <v>1018</v>
       </c>
       <c r="H197" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="I197" t="s">
-        <v>1301</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.3">
@@ -9555,10 +9558,10 @@
         <v>1019</v>
       </c>
       <c r="H198" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="I198" t="s">
-        <v>1301</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.3">
@@ -9581,10 +9584,10 @@
         <v>1020</v>
       </c>
       <c r="H199" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="I199" t="s">
-        <v>1301</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.3">
@@ -9607,10 +9610,10 @@
         <v>943</v>
       </c>
       <c r="H200" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="I200" t="s">
-        <v>1301</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.3">
@@ -9633,10 +9636,10 @@
         <v>1021</v>
       </c>
       <c r="H201" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="I201" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.3">
@@ -9659,10 +9662,10 @@
         <v>1022</v>
       </c>
       <c r="H202" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="I202" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.3">
@@ -9685,10 +9688,10 @@
         <v>1023</v>
       </c>
       <c r="H203" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="I203" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.3">
@@ -9711,10 +9714,10 @@
         <v>1024</v>
       </c>
       <c r="H204" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="I204" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.3">
@@ -9737,10 +9740,10 @@
         <v>1010</v>
       </c>
       <c r="H205" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="I205" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.3">
@@ -9763,10 +9766,10 @@
         <v>1025</v>
       </c>
       <c r="H206" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="I206" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.3">
@@ -9789,10 +9792,10 @@
         <v>1026</v>
       </c>
       <c r="H207" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="I207" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.3">
@@ -9815,10 +9818,10 @@
         <v>1027</v>
       </c>
       <c r="H208" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="I208" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.3">
@@ -9841,10 +9844,10 @@
         <v>1028</v>
       </c>
       <c r="H209" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="I209" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.3">
@@ -9867,10 +9870,10 @@
         <v>1029</v>
       </c>
       <c r="H210" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="I210" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.3">
@@ -9893,10 +9896,10 @@
         <v>1030</v>
       </c>
       <c r="H211" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="I211" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.3">
@@ -9919,10 +9922,10 @@
         <v>1031</v>
       </c>
       <c r="H212" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="I212" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.3">
@@ -9945,10 +9948,10 @@
         <v>1032</v>
       </c>
       <c r="H213" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="I213" t="s">
-        <v>1301</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.3">
@@ -9971,10 +9974,10 @@
         <v>1033</v>
       </c>
       <c r="H214" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="I214" t="s">
-        <v>1301</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.3">
@@ -9997,10 +10000,10 @@
         <v>1034</v>
       </c>
       <c r="H215" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="I215" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.3">
@@ -10023,10 +10026,10 @@
         <v>1035</v>
       </c>
       <c r="H216" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="I216" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.3">
@@ -10049,10 +10052,10 @@
         <v>1036</v>
       </c>
       <c r="H217" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="I217" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.3">
@@ -10075,10 +10078,10 @@
         <v>1037</v>
       </c>
       <c r="H218" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="I218" t="s">
-        <v>1301</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.3">
@@ -10101,10 +10104,10 @@
         <v>1038</v>
       </c>
       <c r="H219" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="I219" t="s">
-        <v>1301</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.3">
@@ -10127,10 +10130,10 @@
         <v>1039</v>
       </c>
       <c r="H220" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="I220" t="s">
-        <v>1301</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.3">
@@ -10153,10 +10156,10 @@
         <v>1040</v>
       </c>
       <c r="H221" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="I221" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.3">
@@ -10179,10 +10182,10 @@
         <v>1041</v>
       </c>
       <c r="H222" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="I222" t="s">
-        <v>1301</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.3">
@@ -10205,10 +10208,10 @@
         <v>976</v>
       </c>
       <c r="H223" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="I223" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.3">
@@ -10234,7 +10237,7 @@
         <v>1159</v>
       </c>
       <c r="I224" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.3">
@@ -10260,7 +10263,7 @@
         <v>1159</v>
       </c>
       <c r="I225" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.3">
@@ -10286,7 +10289,7 @@
         <v>1159</v>
       </c>
       <c r="I226" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.3">
@@ -10312,7 +10315,7 @@
         <v>1159</v>
       </c>
       <c r="I227" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.3">
@@ -10335,10 +10338,10 @@
         <v>1008</v>
       </c>
       <c r="H228" t="s">
-        <v>1281</v>
+        <v>1278</v>
       </c>
       <c r="I228" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.3">
@@ -10361,10 +10364,10 @@
         <v>1045</v>
       </c>
       <c r="H229" t="s">
-        <v>1281</v>
+        <v>1278</v>
       </c>
       <c r="I229" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.3">
@@ -10387,10 +10390,10 @@
         <v>1046</v>
       </c>
       <c r="H230" t="s">
-        <v>1282</v>
+        <v>1279</v>
       </c>
       <c r="I230" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.3">
@@ -10413,10 +10416,10 @@
         <v>1047</v>
       </c>
       <c r="H231" t="s">
-        <v>1282</v>
+        <v>1279</v>
       </c>
       <c r="I231" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.3">
@@ -10439,10 +10442,10 @@
         <v>915</v>
       </c>
       <c r="H232" t="s">
-        <v>1282</v>
+        <v>1279</v>
       </c>
       <c r="I232" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.3">
@@ -10465,10 +10468,10 @@
         <v>1048</v>
       </c>
       <c r="H233" t="s">
-        <v>1282</v>
+        <v>1279</v>
       </c>
       <c r="I233" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.3">
@@ -10491,10 +10494,10 @@
         <v>1049</v>
       </c>
       <c r="H234" t="s">
-        <v>1282</v>
+        <v>1279</v>
       </c>
       <c r="I234" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.3">
@@ -10517,10 +10520,10 @@
         <v>888</v>
       </c>
       <c r="H235" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="I235" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.3">
@@ -10543,10 +10546,10 @@
         <v>905</v>
       </c>
       <c r="H236" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="I236" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.3">
@@ -10569,10 +10572,10 @@
         <v>1008</v>
       </c>
       <c r="H237" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="I237" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.3">
@@ -10595,10 +10598,10 @@
         <v>1050</v>
       </c>
       <c r="H238" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="I238" t="s">
-        <v>1305</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.3">
@@ -10621,10 +10624,10 @@
         <v>1051</v>
       </c>
       <c r="H239" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="I239" t="s">
-        <v>1305</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.3">
@@ -10647,10 +10650,10 @@
         <v>1052</v>
       </c>
       <c r="H240" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="I240" t="s">
-        <v>1305</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="241" spans="1:10" x14ac:dyDescent="0.3">
@@ -10673,10 +10676,10 @@
         <v>1053</v>
       </c>
       <c r="H241" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="I241" t="s">
-        <v>1305</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="242" spans="1:10" x14ac:dyDescent="0.3">
@@ -10699,10 +10702,10 @@
         <v>1054</v>
       </c>
       <c r="H242" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="I242" t="s">
-        <v>1305</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="243" spans="1:10" x14ac:dyDescent="0.3">
@@ -10728,7 +10731,7 @@
         <v>1149</v>
       </c>
       <c r="I243" t="s">
-        <v>1305</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="244" spans="1:10" x14ac:dyDescent="0.3">
@@ -10751,13 +10754,13 @@
         <v>1055</v>
       </c>
       <c r="H244" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="I244" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
       <c r="J244" t="s">
-        <v>1302</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="245" spans="1:10" x14ac:dyDescent="0.3">
@@ -10780,13 +10783,13 @@
         <v>1056</v>
       </c>
       <c r="H245" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="I245" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
       <c r="J245" t="s">
-        <v>1302</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="246" spans="1:10" x14ac:dyDescent="0.3">
@@ -10809,10 +10812,10 @@
         <v>1057</v>
       </c>
       <c r="H246" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="I246" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="247" spans="1:10" x14ac:dyDescent="0.3">
@@ -10835,10 +10838,10 @@
         <v>1057</v>
       </c>
       <c r="H247" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="I247" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="248" spans="1:10" x14ac:dyDescent="0.3">
@@ -10861,13 +10864,13 @@
         <v>1058</v>
       </c>
       <c r="H248" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="I248" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
       <c r="J248" t="s">
-        <v>1302</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="249" spans="1:10" x14ac:dyDescent="0.3">
@@ -10890,13 +10893,13 @@
         <v>1059</v>
       </c>
       <c r="H249" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="I249" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
       <c r="J249" t="s">
-        <v>1302</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="250" spans="1:10" x14ac:dyDescent="0.3">
@@ -10919,10 +10922,10 @@
         <v>871</v>
       </c>
       <c r="H250" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="I250" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="251" spans="1:10" x14ac:dyDescent="0.3">
@@ -10945,10 +10948,10 @@
         <v>871</v>
       </c>
       <c r="H251" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="I251" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="252" spans="1:10" x14ac:dyDescent="0.3">
@@ -10971,10 +10974,10 @@
         <v>1060</v>
       </c>
       <c r="H252" t="s">
-        <v>1299</v>
+        <v>1293</v>
       </c>
       <c r="I252" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="253" spans="1:10" x14ac:dyDescent="0.3">
@@ -10997,10 +11000,10 @@
         <v>1061</v>
       </c>
       <c r="H253" t="s">
-        <v>1299</v>
+        <v>1293</v>
       </c>
       <c r="I253" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="254" spans="1:10" x14ac:dyDescent="0.3">
@@ -11023,10 +11026,10 @@
         <v>1062</v>
       </c>
       <c r="H254" t="s">
-        <v>1283</v>
+        <v>1280</v>
       </c>
       <c r="I254" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="255" spans="1:10" x14ac:dyDescent="0.3">
@@ -11049,10 +11052,10 @@
         <v>871</v>
       </c>
       <c r="H255" t="s">
-        <v>1299</v>
+        <v>1293</v>
       </c>
       <c r="I255" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="256" spans="1:10" x14ac:dyDescent="0.3">
@@ -11075,10 +11078,10 @@
         <v>1063</v>
       </c>
       <c r="H256" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="I256" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="257" spans="1:10" x14ac:dyDescent="0.3">
@@ -11101,10 +11104,10 @@
         <v>1064</v>
       </c>
       <c r="H257" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="I257" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="258" spans="1:10" x14ac:dyDescent="0.3">
@@ -11127,10 +11130,10 @@
         <v>988</v>
       </c>
       <c r="H258" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="I258" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="259" spans="1:10" x14ac:dyDescent="0.3">
@@ -11153,10 +11156,10 @@
         <v>910</v>
       </c>
       <c r="H259" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="I259" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="260" spans="1:10" x14ac:dyDescent="0.3">
@@ -11179,10 +11182,10 @@
         <v>1065</v>
       </c>
       <c r="H260" t="s">
-        <v>1299</v>
+        <v>1293</v>
       </c>
       <c r="I260" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="261" spans="1:10" x14ac:dyDescent="0.3">
@@ -11205,13 +11208,13 @@
         <v>1066</v>
       </c>
       <c r="H261" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="I261" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
       <c r="J261" t="s">
-        <v>1302</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="262" spans="1:10" x14ac:dyDescent="0.3">
@@ -11237,7 +11240,7 @@
         <v>1164</v>
       </c>
       <c r="I262" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="263" spans="1:10" x14ac:dyDescent="0.3">
@@ -11263,7 +11266,7 @@
         <v>1164</v>
       </c>
       <c r="I263" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="264" spans="1:10" x14ac:dyDescent="0.3">
@@ -11286,10 +11289,10 @@
         <v>871</v>
       </c>
       <c r="H264" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="I264" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="265" spans="1:10" x14ac:dyDescent="0.3">
@@ -11312,10 +11315,10 @@
         <v>1069</v>
       </c>
       <c r="H265" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="I265" t="s">
-        <v>1305</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="266" spans="1:10" x14ac:dyDescent="0.3">
@@ -11338,10 +11341,10 @@
         <v>951</v>
       </c>
       <c r="H266" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="I266" t="s">
-        <v>1305</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="267" spans="1:10" x14ac:dyDescent="0.3">
@@ -11364,10 +11367,10 @@
         <v>1070</v>
       </c>
       <c r="H267" t="s">
-        <v>1284</v>
+        <v>1281</v>
       </c>
       <c r="I267" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="268" spans="1:10" x14ac:dyDescent="0.3">
@@ -11390,10 +11393,10 @@
         <v>1047</v>
       </c>
       <c r="H268" t="s">
-        <v>1284</v>
+        <v>1281</v>
       </c>
       <c r="I268" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="269" spans="1:10" x14ac:dyDescent="0.3">
@@ -11416,10 +11419,10 @@
         <v>893</v>
       </c>
       <c r="H269" t="s">
-        <v>1285</v>
+        <v>1282</v>
       </c>
       <c r="I269" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="270" spans="1:10" x14ac:dyDescent="0.3">
@@ -11442,10 +11445,10 @@
         <v>1071</v>
       </c>
       <c r="H270" t="s">
-        <v>1285</v>
+        <v>1282</v>
       </c>
       <c r="I270" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="271" spans="1:10" x14ac:dyDescent="0.3">
@@ -11468,10 +11471,10 @@
         <v>923</v>
       </c>
       <c r="H271" t="s">
-        <v>1285</v>
+        <v>1282</v>
       </c>
       <c r="I271" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="272" spans="1:10" x14ac:dyDescent="0.3">
@@ -11494,10 +11497,10 @@
         <v>1072</v>
       </c>
       <c r="H272" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="I272" t="s">
-        <v>1301</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="273" spans="1:12" x14ac:dyDescent="0.3">
@@ -11520,10 +11523,10 @@
         <v>982</v>
       </c>
       <c r="H273" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="I273" t="s">
-        <v>1301</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="274" spans="1:12" x14ac:dyDescent="0.3">
@@ -11546,10 +11549,10 @@
         <v>1073</v>
       </c>
       <c r="H274" t="s">
-        <v>1286</v>
+        <v>1283</v>
       </c>
       <c r="I274" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="275" spans="1:12" x14ac:dyDescent="0.3">
@@ -11572,10 +11575,10 @@
         <v>926</v>
       </c>
       <c r="H275" t="s">
-        <v>1286</v>
+        <v>1283</v>
       </c>
       <c r="I275" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="276" spans="1:12" x14ac:dyDescent="0.3">
@@ -11598,10 +11601,10 @@
         <v>1045</v>
       </c>
       <c r="H276" t="s">
-        <v>1287</v>
+        <v>1284</v>
       </c>
       <c r="I276" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="277" spans="1:12" x14ac:dyDescent="0.3">
@@ -11624,10 +11627,10 @@
         <v>950</v>
       </c>
       <c r="H277" t="s">
-        <v>1287</v>
+        <v>1284</v>
       </c>
       <c r="I277" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="278" spans="1:12" x14ac:dyDescent="0.3">
@@ -11650,10 +11653,10 @@
         <v>924</v>
       </c>
       <c r="H278" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="I278" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="279" spans="1:12" x14ac:dyDescent="0.3">
@@ -11676,10 +11679,10 @@
         <v>925</v>
       </c>
       <c r="H279" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="I279" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="280" spans="1:12" x14ac:dyDescent="0.3">
@@ -11702,10 +11705,10 @@
         <v>1074</v>
       </c>
       <c r="H280" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="I280" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="281" spans="1:12" x14ac:dyDescent="0.3">
@@ -11731,7 +11734,7 @@
         <v>1164</v>
       </c>
       <c r="I281" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="282" spans="1:12" x14ac:dyDescent="0.3">
@@ -11757,13 +11760,13 @@
         <v>1164</v>
       </c>
       <c r="I282" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
       <c r="K282" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="L282" t="s">
-        <v>1305</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="283" spans="1:12" x14ac:dyDescent="0.3">
@@ -11786,10 +11789,10 @@
         <v>1075</v>
       </c>
       <c r="H283" t="s">
-        <v>1285</v>
+        <v>1282</v>
       </c>
       <c r="I283" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="284" spans="1:12" x14ac:dyDescent="0.3">
@@ -11812,10 +11815,10 @@
         <v>1076</v>
       </c>
       <c r="H284" t="s">
-        <v>1285</v>
+        <v>1282</v>
       </c>
       <c r="I284" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="285" spans="1:12" x14ac:dyDescent="0.3">
@@ -11838,10 +11841,10 @@
         <v>974</v>
       </c>
       <c r="H285" t="s">
-        <v>1285</v>
+        <v>1282</v>
       </c>
       <c r="I285" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="286" spans="1:12" x14ac:dyDescent="0.3">
@@ -11864,10 +11867,10 @@
         <v>986</v>
       </c>
       <c r="H286" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="I286" t="s">
-        <v>1301</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="287" spans="1:12" x14ac:dyDescent="0.3">
@@ -11890,10 +11893,10 @@
         <v>1077</v>
       </c>
       <c r="H287" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="I287" t="s">
-        <v>1301</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="288" spans="1:12" x14ac:dyDescent="0.3">
@@ -11916,10 +11919,10 @@
         <v>1078</v>
       </c>
       <c r="H288" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="I288" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="289" spans="1:9" x14ac:dyDescent="0.3">
@@ -11942,10 +11945,10 @@
         <v>1079</v>
       </c>
       <c r="H289" t="s">
-        <v>1306</v>
+        <v>1300</v>
       </c>
       <c r="I289" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="290" spans="1:9" x14ac:dyDescent="0.3">
@@ -11968,10 +11971,10 @@
         <v>1080</v>
       </c>
       <c r="H290" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="I290" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="291" spans="1:9" x14ac:dyDescent="0.3">
@@ -11997,10 +12000,10 @@
         <v>1081</v>
       </c>
       <c r="H291" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="I291" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="292" spans="1:9" x14ac:dyDescent="0.3">
@@ -12026,10 +12029,10 @@
         <v>919</v>
       </c>
       <c r="H292" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="I292" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="293" spans="1:9" x14ac:dyDescent="0.3">
@@ -12052,10 +12055,10 @@
         <v>1082</v>
       </c>
       <c r="H293" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="I293" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="294" spans="1:9" x14ac:dyDescent="0.3">
@@ -12078,10 +12081,10 @@
         <v>1083</v>
       </c>
       <c r="H294" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="I294" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="295" spans="1:9" x14ac:dyDescent="0.3">
@@ -12104,10 +12107,10 @@
         <v>1084</v>
       </c>
       <c r="H295" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="I295" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="296" spans="1:9" x14ac:dyDescent="0.3">
@@ -12130,10 +12133,10 @@
         <v>880</v>
       </c>
       <c r="H296" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="I296" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="297" spans="1:9" x14ac:dyDescent="0.3">
@@ -12156,10 +12159,10 @@
         <v>888</v>
       </c>
       <c r="H297" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="I297" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="298" spans="1:9" x14ac:dyDescent="0.3">
@@ -12182,10 +12185,10 @@
         <v>871</v>
       </c>
       <c r="H298" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="I298" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="299" spans="1:9" x14ac:dyDescent="0.3">
@@ -12208,10 +12211,10 @@
         <v>871</v>
       </c>
       <c r="H299" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="I299" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="300" spans="1:9" x14ac:dyDescent="0.3">
@@ -12234,10 +12237,10 @@
         <v>1085</v>
       </c>
       <c r="H300" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="I300" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="301" spans="1:9" x14ac:dyDescent="0.3">
@@ -12260,10 +12263,10 @@
         <v>1086</v>
       </c>
       <c r="H301" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="I301" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="302" spans="1:9" x14ac:dyDescent="0.3">
@@ -12286,10 +12289,10 @@
         <v>1087</v>
       </c>
       <c r="H302" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="I302" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="303" spans="1:9" x14ac:dyDescent="0.3">
@@ -12312,10 +12315,10 @@
         <v>1088</v>
       </c>
       <c r="H303" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="I303" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="304" spans="1:9" x14ac:dyDescent="0.3">
@@ -12338,10 +12341,10 @@
         <v>1089</v>
       </c>
       <c r="H304" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="I304" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="305" spans="1:9" x14ac:dyDescent="0.3">
@@ -12367,7 +12370,7 @@
         <v>1170</v>
       </c>
       <c r="I305" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="306" spans="1:9" x14ac:dyDescent="0.3">
@@ -12390,10 +12393,10 @@
         <v>887</v>
       </c>
       <c r="H306" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="I306" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="307" spans="1:9" x14ac:dyDescent="0.3">
@@ -12416,10 +12419,10 @@
         <v>884</v>
       </c>
       <c r="H307" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="I307" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="308" spans="1:9" x14ac:dyDescent="0.3">
@@ -12442,10 +12445,10 @@
         <v>1060</v>
       </c>
       <c r="H308" t="s">
-        <v>1297</v>
+        <v>1292</v>
       </c>
       <c r="I308" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="309" spans="1:9" x14ac:dyDescent="0.3">
@@ -12468,10 +12471,10 @@
         <v>985</v>
       </c>
       <c r="H309" t="s">
-        <v>1297</v>
+        <v>1292</v>
       </c>
       <c r="I309" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="310" spans="1:9" x14ac:dyDescent="0.3">
@@ -12494,10 +12497,10 @@
         <v>1090</v>
       </c>
       <c r="H310" t="s">
-        <v>1297</v>
+        <v>1292</v>
       </c>
       <c r="I310" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="311" spans="1:9" x14ac:dyDescent="0.3">
@@ -12520,10 +12523,10 @@
         <v>1091</v>
       </c>
       <c r="H311" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="I311" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="312" spans="1:9" x14ac:dyDescent="0.3">
@@ -12546,10 +12549,10 @@
         <v>928</v>
       </c>
       <c r="H312" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="I312" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="313" spans="1:9" x14ac:dyDescent="0.3">
@@ -12572,10 +12575,10 @@
         <v>1073</v>
       </c>
       <c r="H313" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="I313" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="314" spans="1:9" x14ac:dyDescent="0.3">
@@ -12598,10 +12601,10 @@
         <v>951</v>
       </c>
       <c r="H314" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="I314" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="315" spans="1:9" x14ac:dyDescent="0.3">
@@ -12624,10 +12627,10 @@
         <v>988</v>
       </c>
       <c r="H315" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="I315" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="316" spans="1:9" x14ac:dyDescent="0.3">
@@ -12650,10 +12653,10 @@
         <v>925</v>
       </c>
       <c r="H316" t="s">
-        <v>1288</v>
+        <v>1285</v>
       </c>
       <c r="I316" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="317" spans="1:9" x14ac:dyDescent="0.3">
@@ -12676,10 +12679,10 @@
         <v>980</v>
       </c>
       <c r="H317" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="I317" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="318" spans="1:9" x14ac:dyDescent="0.3">
@@ -12702,10 +12705,10 @@
         <v>1092</v>
       </c>
       <c r="H318" t="s">
-        <v>1289</v>
+        <v>1286</v>
       </c>
       <c r="I318" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="319" spans="1:9" x14ac:dyDescent="0.3">
@@ -12728,10 +12731,10 @@
         <v>1093</v>
       </c>
       <c r="H319" t="s">
-        <v>1289</v>
+        <v>1286</v>
       </c>
       <c r="I319" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="320" spans="1:9" x14ac:dyDescent="0.3">
@@ -12757,10 +12760,10 @@
         <v>1010</v>
       </c>
       <c r="H320" t="s">
-        <v>1289</v>
+        <v>1286</v>
       </c>
       <c r="I320" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="321" spans="1:9" x14ac:dyDescent="0.3">
@@ -12783,10 +12786,10 @@
         <v>871</v>
       </c>
       <c r="H321" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="I321" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="322" spans="1:9" x14ac:dyDescent="0.3">
@@ -12809,10 +12812,10 @@
         <v>870</v>
       </c>
       <c r="H322" t="s">
-        <v>1297</v>
+        <v>1292</v>
       </c>
       <c r="I322" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="323" spans="1:9" x14ac:dyDescent="0.3">
@@ -12835,10 +12838,10 @@
         <v>890</v>
       </c>
       <c r="H323" t="s">
-        <v>1297</v>
+        <v>1292</v>
       </c>
       <c r="I323" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="324" spans="1:9" x14ac:dyDescent="0.3">
@@ -12861,10 +12864,10 @@
         <v>1094</v>
       </c>
       <c r="H324" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="I324" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="325" spans="1:9" x14ac:dyDescent="0.3">
@@ -12887,10 +12890,10 @@
         <v>1095</v>
       </c>
       <c r="H325" t="s">
-        <v>1289</v>
+        <v>1286</v>
       </c>
       <c r="I325" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="326" spans="1:9" x14ac:dyDescent="0.3">
@@ -12913,10 +12916,10 @@
         <v>1096</v>
       </c>
       <c r="H326" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="I326" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="327" spans="1:9" x14ac:dyDescent="0.3">
@@ -12939,10 +12942,10 @@
         <v>871</v>
       </c>
       <c r="H327" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="I327" t="s">
-        <v>1301</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="328" spans="1:9" x14ac:dyDescent="0.3">
@@ -12965,10 +12968,10 @@
         <v>951</v>
       </c>
       <c r="H328" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="I328" t="s">
-        <v>1301</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="329" spans="1:9" x14ac:dyDescent="0.3">
@@ -12991,10 +12994,10 @@
         <v>1008</v>
       </c>
       <c r="H329" t="s">
-        <v>1283</v>
+        <v>1280</v>
       </c>
       <c r="I329" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="330" spans="1:9" x14ac:dyDescent="0.3">
@@ -13017,10 +13020,10 @@
         <v>925</v>
       </c>
       <c r="H330" t="s">
-        <v>1283</v>
+        <v>1280</v>
       </c>
       <c r="I330" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="331" spans="1:9" x14ac:dyDescent="0.3">
@@ -13043,10 +13046,10 @@
         <v>871</v>
       </c>
       <c r="H331" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="I331" t="s">
-        <v>1301</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="332" spans="1:9" x14ac:dyDescent="0.3">
@@ -13072,10 +13075,10 @@
         <v>884</v>
       </c>
       <c r="H332" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="I332" t="s">
-        <v>1301</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="333" spans="1:9" x14ac:dyDescent="0.3">
@@ -13101,10 +13104,10 @@
         <v>887</v>
       </c>
       <c r="H333" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="I333" t="s">
-        <v>1301</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="334" spans="1:9" x14ac:dyDescent="0.3">
@@ -13127,10 +13130,10 @@
         <v>951</v>
       </c>
       <c r="H334" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="I334" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="335" spans="1:9" x14ac:dyDescent="0.3">
@@ -13153,10 +13156,10 @@
         <v>880</v>
       </c>
       <c r="H335" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="I335" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="336" spans="1:9" x14ac:dyDescent="0.3">
@@ -13179,10 +13182,10 @@
         <v>1001</v>
       </c>
       <c r="H336" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="I336" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="337" spans="1:9" x14ac:dyDescent="0.3">
@@ -13205,10 +13208,10 @@
         <v>988</v>
       </c>
       <c r="H337" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="I337" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="338" spans="1:9" x14ac:dyDescent="0.3">
@@ -13231,10 +13234,10 @@
         <v>1097</v>
       </c>
       <c r="H338" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="I338" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="339" spans="1:9" x14ac:dyDescent="0.3">
@@ -13257,10 +13260,10 @@
         <v>1098</v>
       </c>
       <c r="H339" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="I339" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="340" spans="1:9" x14ac:dyDescent="0.3">
@@ -13283,10 +13286,10 @@
         <v>1008</v>
       </c>
       <c r="H340" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="I340" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="341" spans="1:9" x14ac:dyDescent="0.3">
@@ -13309,10 +13312,10 @@
         <v>1099</v>
       </c>
       <c r="H341" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="I341" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="342" spans="1:9" x14ac:dyDescent="0.3">
@@ -13335,10 +13338,10 @@
         <v>1100</v>
       </c>
       <c r="H342" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="I342" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="343" spans="1:9" x14ac:dyDescent="0.3">
@@ -13361,10 +13364,10 @@
         <v>1101</v>
       </c>
       <c r="H343" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="I343" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="344" spans="1:9" x14ac:dyDescent="0.3">
@@ -13387,10 +13390,10 @@
         <v>973</v>
       </c>
       <c r="H344" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="I344" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="345" spans="1:9" x14ac:dyDescent="0.3">
@@ -13413,10 +13416,10 @@
         <v>1102</v>
       </c>
       <c r="H345" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="I345" t="s">
-        <v>1301</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="346" spans="1:9" x14ac:dyDescent="0.3">
@@ -13439,10 +13442,10 @@
         <v>1103</v>
       </c>
       <c r="H346" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="I346" t="s">
-        <v>1301</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="347" spans="1:9" x14ac:dyDescent="0.3">
@@ -13465,10 +13468,10 @@
         <v>1091</v>
       </c>
       <c r="H347" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="I347" t="s">
-        <v>1301</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="348" spans="1:9" x14ac:dyDescent="0.3">
@@ -13491,10 +13494,10 @@
         <v>1104</v>
       </c>
       <c r="H348" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="I348" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="349" spans="1:9" x14ac:dyDescent="0.3">
@@ -13517,10 +13520,10 @@
         <v>1105</v>
       </c>
       <c r="H349" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="I349" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="350" spans="1:9" x14ac:dyDescent="0.3">
@@ -13543,10 +13546,10 @@
         <v>1106</v>
       </c>
       <c r="H350" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="I350" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="351" spans="1:9" x14ac:dyDescent="0.3">
@@ -13569,10 +13572,10 @@
         <v>890</v>
       </c>
       <c r="H351" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="I351" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="352" spans="1:9" x14ac:dyDescent="0.3">
@@ -13598,10 +13601,10 @@
         <v>1107</v>
       </c>
       <c r="H352" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="I352" t="s">
-        <v>1301</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="353" spans="1:12" x14ac:dyDescent="0.3">
@@ -13627,10 +13630,10 @@
         <v>884</v>
       </c>
       <c r="H353" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="I353" t="s">
-        <v>1301</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="354" spans="1:12" x14ac:dyDescent="0.3">
@@ -13656,10 +13659,10 @@
         <v>915</v>
       </c>
       <c r="H354" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="I354" t="s">
-        <v>1301</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="355" spans="1:12" x14ac:dyDescent="0.3">
@@ -13685,10 +13688,10 @@
         <v>1108</v>
       </c>
       <c r="H355" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="I355" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="356" spans="1:12" x14ac:dyDescent="0.3">
@@ -13711,10 +13714,10 @@
         <v>1109</v>
       </c>
       <c r="H356" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="I356" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="357" spans="1:12" x14ac:dyDescent="0.3">
@@ -13737,16 +13740,16 @@
         <v>943</v>
       </c>
       <c r="H357" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="I357" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
       <c r="K357" t="s">
-        <v>1308</v>
+        <v>1302</v>
       </c>
       <c r="L357" t="s">
-        <v>1301</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="358" spans="1:12" x14ac:dyDescent="0.3">
@@ -13769,10 +13772,10 @@
         <v>1110</v>
       </c>
       <c r="H358" t="s">
-        <v>1308</v>
+        <v>1302</v>
       </c>
       <c r="I358" t="s">
-        <v>1301</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="359" spans="1:12" x14ac:dyDescent="0.3">
@@ -13795,10 +13798,10 @@
         <v>1111</v>
       </c>
       <c r="H359" t="s">
-        <v>1308</v>
+        <v>1302</v>
       </c>
       <c r="I359" t="s">
-        <v>1301</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="360" spans="1:12" x14ac:dyDescent="0.3">
@@ -13821,10 +13824,10 @@
         <v>1112</v>
       </c>
       <c r="H360" t="s">
-        <v>1308</v>
+        <v>1302</v>
       </c>
       <c r="I360" t="s">
-        <v>1301</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="361" spans="1:12" x14ac:dyDescent="0.3">
@@ -13847,16 +13850,16 @@
         <v>943</v>
       </c>
       <c r="H361" t="s">
-        <v>1308</v>
+        <v>1302</v>
       </c>
       <c r="I361" t="s">
-        <v>1301</v>
+        <v>1295</v>
       </c>
       <c r="K361" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="L361" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="362" spans="1:12" x14ac:dyDescent="0.3">
@@ -13879,10 +13882,10 @@
         <v>951</v>
       </c>
       <c r="H362" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="I362" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="363" spans="1:12" x14ac:dyDescent="0.3">
@@ -13905,10 +13908,10 @@
         <v>871</v>
       </c>
       <c r="H363" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="I363" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="364" spans="1:12" x14ac:dyDescent="0.3">
@@ -13931,10 +13934,10 @@
         <v>871</v>
       </c>
       <c r="H364" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="I364" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="365" spans="1:12" x14ac:dyDescent="0.3">
@@ -13960,13 +13963,13 @@
         <v>1113</v>
       </c>
       <c r="H365" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="I365" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
       <c r="J365" t="s">
-        <v>1302</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="366" spans="1:12" x14ac:dyDescent="0.3">
@@ -13989,13 +13992,13 @@
         <v>943</v>
       </c>
       <c r="H366" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="I366" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
       <c r="J366" t="s">
-        <v>1302</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="367" spans="1:12" x14ac:dyDescent="0.3">
@@ -14018,13 +14021,13 @@
         <v>943</v>
       </c>
       <c r="H367" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="I367" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
       <c r="J367" t="s">
-        <v>1302</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="368" spans="1:12" x14ac:dyDescent="0.3">
@@ -14047,13 +14050,13 @@
         <v>1114</v>
       </c>
       <c r="H368" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="I368" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
       <c r="J368" t="s">
-        <v>1302</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="369" spans="1:9" x14ac:dyDescent="0.3">
@@ -14076,10 +14079,10 @@
         <v>1115</v>
       </c>
       <c r="H369" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="I369" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="370" spans="1:9" x14ac:dyDescent="0.3">
@@ -14102,10 +14105,10 @@
         <v>1116</v>
       </c>
       <c r="H370" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="I370" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="371" spans="1:9" x14ac:dyDescent="0.3">
@@ -14128,10 +14131,10 @@
         <v>1117</v>
       </c>
       <c r="H371" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="I371" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="372" spans="1:9" x14ac:dyDescent="0.3">
@@ -14154,10 +14157,10 @@
         <v>1118</v>
       </c>
       <c r="H372" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="I372" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="373" spans="1:9" x14ac:dyDescent="0.3">
@@ -14180,10 +14183,10 @@
         <v>1119</v>
       </c>
       <c r="H373" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="I373" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="374" spans="1:9" x14ac:dyDescent="0.3">
@@ -14206,10 +14209,10 @@
         <v>1120</v>
       </c>
       <c r="H374" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="I374" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="375" spans="1:9" x14ac:dyDescent="0.3">
@@ -14232,10 +14235,10 @@
         <v>1121</v>
       </c>
       <c r="H375" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="I375" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="376" spans="1:9" x14ac:dyDescent="0.3">
@@ -14258,10 +14261,10 @@
         <v>1122</v>
       </c>
       <c r="H376" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="I376" t="s">
-        <v>1301</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="377" spans="1:9" x14ac:dyDescent="0.3">
@@ -14284,10 +14287,10 @@
         <v>1123</v>
       </c>
       <c r="H377" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="I377" t="s">
-        <v>1301</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="378" spans="1:9" x14ac:dyDescent="0.3">
@@ -14310,10 +14313,10 @@
         <v>971</v>
       </c>
       <c r="H378" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="I378" t="s">
-        <v>1301</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="379" spans="1:9" x14ac:dyDescent="0.3">
@@ -14336,10 +14339,10 @@
         <v>1009</v>
       </c>
       <c r="H379" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="I379" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="380" spans="1:9" x14ac:dyDescent="0.3">
@@ -14362,10 +14365,10 @@
         <v>1124</v>
       </c>
       <c r="H380" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="I380" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="381" spans="1:9" x14ac:dyDescent="0.3">
@@ -14388,10 +14391,10 @@
         <v>951</v>
       </c>
       <c r="H381" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="I381" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="382" spans="1:9" x14ac:dyDescent="0.3">
@@ -14414,10 +14417,10 @@
         <v>951</v>
       </c>
       <c r="H382" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="I382" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="383" spans="1:9" x14ac:dyDescent="0.3">
@@ -14443,10 +14446,10 @@
         <v>1125</v>
       </c>
       <c r="H383" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="I383" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="384" spans="1:9" x14ac:dyDescent="0.3">
@@ -14472,10 +14475,10 @@
         <v>1126</v>
       </c>
       <c r="H384" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="I384" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="385" spans="1:12" x14ac:dyDescent="0.3">
@@ -14501,10 +14504,10 @@
         <v>917</v>
       </c>
       <c r="H385" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="I385" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="386" spans="1:12" x14ac:dyDescent="0.3">
@@ -14530,10 +14533,10 @@
         <v>943</v>
       </c>
       <c r="H386" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="I386" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="387" spans="1:12" x14ac:dyDescent="0.3">
@@ -14559,10 +14562,10 @@
         <v>1127</v>
       </c>
       <c r="H387" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="I387" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="388" spans="1:12" x14ac:dyDescent="0.3">
@@ -14588,10 +14591,10 @@
         <v>1128</v>
       </c>
       <c r="H388" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="I388" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="389" spans="1:12" x14ac:dyDescent="0.3">
@@ -14617,10 +14620,10 @@
         <v>943</v>
       </c>
       <c r="H389" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="I389" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="390" spans="1:12" x14ac:dyDescent="0.3">
@@ -14646,10 +14649,10 @@
         <v>1008</v>
       </c>
       <c r="H390" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="I390" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="391" spans="1:12" x14ac:dyDescent="0.3">
@@ -14672,10 +14675,10 @@
         <v>871</v>
       </c>
       <c r="H391" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="I391" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="392" spans="1:12" x14ac:dyDescent="0.3">
@@ -14698,10 +14701,10 @@
         <v>871</v>
       </c>
       <c r="H392" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="I392" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="393" spans="1:12" x14ac:dyDescent="0.3">
@@ -14724,10 +14727,10 @@
         <v>871</v>
       </c>
       <c r="H393" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="I393" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="394" spans="1:12" x14ac:dyDescent="0.3">
@@ -14753,7 +14756,7 @@
         <v>1163</v>
       </c>
       <c r="I394" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="395" spans="1:12" x14ac:dyDescent="0.3">
@@ -14779,7 +14782,7 @@
         <v>1163</v>
       </c>
       <c r="I395" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="396" spans="1:12" x14ac:dyDescent="0.3">
@@ -14805,7 +14808,7 @@
         <v>1163</v>
       </c>
       <c r="I396" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="397" spans="1:12" x14ac:dyDescent="0.3">
@@ -14831,13 +14834,13 @@
         <v>1163</v>
       </c>
       <c r="I397" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
       <c r="K397" t="s">
-        <v>1290</v>
+        <v>1287</v>
       </c>
       <c r="L397" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="398" spans="1:12" x14ac:dyDescent="0.3">
@@ -14863,7 +14866,7 @@
         <v>1163</v>
       </c>
       <c r="I398" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="399" spans="1:12" x14ac:dyDescent="0.3">
@@ -14889,7 +14892,7 @@
         <v>1163</v>
       </c>
       <c r="I399" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="400" spans="1:12" x14ac:dyDescent="0.3">
@@ -14912,10 +14915,10 @@
         <v>951</v>
       </c>
       <c r="H400" t="s">
-        <v>1290</v>
+        <v>1287</v>
       </c>
       <c r="I400" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="401" spans="1:12" x14ac:dyDescent="0.3">
@@ -14938,16 +14941,16 @@
         <v>1130</v>
       </c>
       <c r="H401" t="s">
-        <v>1290</v>
+        <v>1287</v>
       </c>
       <c r="I401" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
       <c r="K401" t="s">
         <v>1163</v>
       </c>
       <c r="L401" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="402" spans="1:12" x14ac:dyDescent="0.3">
@@ -14970,10 +14973,10 @@
         <v>1131</v>
       </c>
       <c r="H402" t="s">
-        <v>1291</v>
+        <v>1288</v>
       </c>
       <c r="I402" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="403" spans="1:12" x14ac:dyDescent="0.3">
@@ -14996,10 +14999,10 @@
         <v>1132</v>
       </c>
       <c r="H403" t="s">
-        <v>1291</v>
+        <v>1288</v>
       </c>
       <c r="I403" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="404" spans="1:12" x14ac:dyDescent="0.3">
@@ -15022,10 +15025,10 @@
         <v>1133</v>
       </c>
       <c r="H404" t="s">
-        <v>1291</v>
+        <v>1288</v>
       </c>
       <c r="I404" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="405" spans="1:12" x14ac:dyDescent="0.3">
@@ -15048,10 +15051,10 @@
         <v>1134</v>
       </c>
       <c r="H405" t="s">
-        <v>1291</v>
+        <v>1288</v>
       </c>
       <c r="I405" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="406" spans="1:12" x14ac:dyDescent="0.3">
@@ -15074,10 +15077,10 @@
         <v>1135</v>
       </c>
       <c r="H406" t="s">
-        <v>1291</v>
+        <v>1288</v>
       </c>
       <c r="I406" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="407" spans="1:12" x14ac:dyDescent="0.3">
@@ -15100,10 +15103,10 @@
         <v>1136</v>
       </c>
       <c r="H407" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="I407" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="408" spans="1:12" x14ac:dyDescent="0.3">
@@ -15126,10 +15129,10 @@
         <v>971</v>
       </c>
       <c r="H408" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="I408" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="409" spans="1:12" x14ac:dyDescent="0.3">
@@ -15152,10 +15155,10 @@
         <v>933</v>
       </c>
       <c r="H409" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="I409" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="410" spans="1:12" x14ac:dyDescent="0.3">
@@ -15178,10 +15181,10 @@
         <v>918</v>
       </c>
       <c r="H410" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="I410" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="411" spans="1:12" x14ac:dyDescent="0.3">
@@ -15204,10 +15207,10 @@
         <v>1137</v>
       </c>
       <c r="H411" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="I411" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="412" spans="1:12" x14ac:dyDescent="0.3">
@@ -15230,10 +15233,10 @@
         <v>988</v>
       </c>
       <c r="H412" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="I412" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="413" spans="1:12" x14ac:dyDescent="0.3">
@@ -15256,10 +15259,10 @@
         <v>1138</v>
       </c>
       <c r="H413" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="I413" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="414" spans="1:12" x14ac:dyDescent="0.3">
@@ -15282,10 +15285,10 @@
         <v>951</v>
       </c>
       <c r="H414" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="I414" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="415" spans="1:12" x14ac:dyDescent="0.3">
@@ -15308,10 +15311,10 @@
         <v>871</v>
       </c>
       <c r="H415" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="I415" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="416" spans="1:12" x14ac:dyDescent="0.3">
@@ -15334,10 +15337,10 @@
         <v>1139</v>
       </c>
       <c r="H416" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="I416" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="417" spans="1:14" x14ac:dyDescent="0.3">
@@ -15360,22 +15363,22 @@
         <v>1140</v>
       </c>
       <c r="H417" t="s">
+        <v>1256</v>
+      </c>
+      <c r="I417" t="s">
+        <v>1294</v>
+      </c>
+      <c r="K417" t="s">
         <v>1257</v>
       </c>
-      <c r="I417" t="s">
-        <v>1300</v>
-      </c>
-      <c r="K417" t="s">
-        <v>1258</v>
-      </c>
       <c r="L417" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
       <c r="M417" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="N417" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="418" spans="1:14" x14ac:dyDescent="0.3">
@@ -15398,10 +15401,10 @@
         <v>1141</v>
       </c>
       <c r="H418" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="I418" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="419" spans="1:14" x14ac:dyDescent="0.3">
@@ -15427,10 +15430,10 @@
         <v>1142</v>
       </c>
       <c r="H419" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="I419" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="420" spans="1:14" x14ac:dyDescent="0.3">
@@ -15453,10 +15456,10 @@
         <v>1143</v>
       </c>
       <c r="H420" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="I420" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="421" spans="1:14" x14ac:dyDescent="0.3">
@@ -15479,10 +15482,10 @@
         <v>1144</v>
       </c>
       <c r="H421" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="I421" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="422" spans="1:14" x14ac:dyDescent="0.3">
@@ -15505,10 +15508,10 @@
         <v>871</v>
       </c>
       <c r="H422" t="s">
-        <v>1259</v>
+        <v>1311</v>
       </c>
       <c r="I422" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="423" spans="1:14" x14ac:dyDescent="0.3">
@@ -15531,10 +15534,10 @@
         <v>951</v>
       </c>
       <c r="H423" t="s">
-        <v>1259</v>
+        <v>1311</v>
       </c>
       <c r="I423" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="424" spans="1:14" x14ac:dyDescent="0.3">
@@ -15557,10 +15560,10 @@
         <v>988</v>
       </c>
       <c r="H424" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="I424" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="425" spans="1:14" x14ac:dyDescent="0.3">
@@ -15583,10 +15586,10 @@
         <v>980</v>
       </c>
       <c r="H425" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="I425" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="426" spans="1:14" x14ac:dyDescent="0.3">
@@ -15609,10 +15612,10 @@
         <v>951</v>
       </c>
       <c r="H426" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="I426" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="427" spans="1:14" x14ac:dyDescent="0.3">
@@ -15635,10 +15638,10 @@
         <v>951</v>
       </c>
       <c r="H427" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="I427" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="428" spans="1:14" x14ac:dyDescent="0.3">
@@ -15661,10 +15664,10 @@
         <v>951</v>
       </c>
       <c r="H428" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="I428" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="429" spans="1:14" x14ac:dyDescent="0.3">
@@ -15687,10 +15690,10 @@
         <v>871</v>
       </c>
       <c r="H429" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="I429" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="430" spans="1:14" x14ac:dyDescent="0.3">
@@ -15713,10 +15716,10 @@
         <v>1145</v>
       </c>
       <c r="H430" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="I430" t="s">
-        <v>1301</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="431" spans="1:14" x14ac:dyDescent="0.3">
@@ -15739,10 +15742,10 @@
         <v>871</v>
       </c>
       <c r="H431" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="I431" t="s">
-        <v>1301</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="432" spans="1:14" x14ac:dyDescent="0.3">
@@ -15765,10 +15768,10 @@
         <v>1146</v>
       </c>
       <c r="H432" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="I432" t="s">
-        <v>1301</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="433" spans="1:9" x14ac:dyDescent="0.3">
@@ -15791,10 +15794,10 @@
         <v>1147</v>
       </c>
       <c r="H433" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="I433" t="s">
-        <v>1301</v>
+        <v>1295</v>
       </c>
     </row>
   </sheetData>
